--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业财务费用.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业财务费用.xlsx
@@ -2150,7 +2150,7 @@
         <v>4.9</v>
       </c>
       <c r="CK3" t="n">
-        <v>8</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="CL3" t="n">
         <v>32.5</v>
@@ -2177,7 +2177,7 @@
         <v>23.2</v>
       </c>
       <c r="CT3" t="n">
-        <v>17.99999999999999</v>
+        <v>4.89999999999999</v>
       </c>
       <c r="CU3" t="n">
         <v>119.9</v>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.59999999999999</v>
+        <v>22.39999999999998</v>
       </c>
       <c r="C4" t="n">
         <v>140.2</v>
@@ -2562,7 +2562,7 @@
         <v>-200</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.7000000000000028</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="AS4" t="n">
         <v>42.2</v>
@@ -2616,7 +2616,7 @@
         <v>-1.4</v>
       </c>
       <c r="BJ4" t="n">
-        <v>29.3</v>
+        <v>27.7</v>
       </c>
       <c r="BK4" t="n">
         <v>99.09999999999999</v>
@@ -2688,7 +2688,7 @@
         <v>14</v>
       </c>
       <c r="CH4" t="n">
-        <v>34.20000000000002</v>
+        <v>27.30000000000003</v>
       </c>
       <c r="CI4" t="n">
         <v>140.2</v>
@@ -2724,7 +2724,7 @@
         <v>17.6</v>
       </c>
       <c r="CT4" t="n">
-        <v>30.10000000000001</v>
+        <v>12.10000000000002</v>
       </c>
       <c r="CU4" t="n">
         <v>143.5</v>
@@ -2769,7 +2769,7 @@
         <v>7.7</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.699999999999999</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="DJ4" t="n">
         <v>4.7</v>
@@ -2778,7 +2778,7 @@
         <v>-13</v>
       </c>
       <c r="DL4" t="n">
-        <v>23.8</v>
+        <v>12.09999999999998</v>
       </c>
       <c r="DM4" t="n">
         <v>127.9</v>
@@ -3001,7 +3001,7 @@
         <v>28.8</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I5" t="n">
         <v>8.6</v>
@@ -3028,7 +3028,7 @@
         <v>9</v>
       </c>
       <c r="Q5" t="n">
-        <v>70.60000000000036</v>
+        <v>53.50000000000045</v>
       </c>
       <c r="R5" t="n">
         <v>3586.7</v>
@@ -3037,7 +3037,7 @@
         <v>8.9</v>
       </c>
       <c r="T5" t="n">
-        <v>5.000000000000057</v>
+        <v>1.200000000000074</v>
       </c>
       <c r="U5" t="n">
         <v>425.9</v>
@@ -3055,7 +3055,7 @@
         <v>6.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.100000000000009</v>
+        <v>3.600000000000009</v>
       </c>
       <c r="AA5" t="n">
         <v>99.3</v>
@@ -3082,7 +3082,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AI5" t="n">
-        <v>96.80000000000018</v>
+        <v>69.90000000000055</v>
       </c>
       <c r="AJ5" t="n">
         <v>5145.5</v>
@@ -3100,7 +3100,7 @@
         <v>6.3</v>
       </c>
       <c r="AO5" t="n">
-        <v>14.2</v>
+        <v>25.8</v>
       </c>
       <c r="AP5" t="n">
         <v>3.4</v>
@@ -3109,7 +3109,7 @@
         <v>-129.3</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.699999999999998</v>
+        <v>0.9999999999999951</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
@@ -3118,7 +3118,7 @@
         <v>16.7</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.499999999999972</v>
+        <v>3.099999999999973</v>
       </c>
       <c r="AV5" t="n">
         <v>277.6</v>
@@ -3145,7 +3145,7 @@
         <v>0.3</v>
       </c>
       <c r="BD5" t="n">
-        <v>4.099999999999991</v>
+        <v>2.399999999999991</v>
       </c>
       <c r="BE5" t="n">
         <v>106.8</v>
@@ -3181,7 +3181,7 @@
         <v>-67.5</v>
       </c>
       <c r="BP5" t="n">
-        <v>79.59999999999997</v>
+        <v>72.89999999999998</v>
       </c>
       <c r="BQ5" t="n">
         <v>405.4</v>
@@ -3190,7 +3190,7 @@
         <v>1.7</v>
       </c>
       <c r="BS5" t="n">
-        <v>4.799999999999997</v>
+        <v>4.5</v>
       </c>
       <c r="BT5" t="n">
         <v>29.7</v>
@@ -3199,7 +3199,7 @@
         <v>-1.3</v>
       </c>
       <c r="BV5" t="n">
-        <v>25.2999999999999</v>
+        <v>21.79999999999982</v>
       </c>
       <c r="BW5" t="n">
         <v>988</v>
@@ -3208,7 +3208,7 @@
         <v>3.9</v>
       </c>
       <c r="BY5" t="n">
-        <v>23.39999999999992</v>
+        <v>19.59999999999974</v>
       </c>
       <c r="BZ5" t="n">
         <v>914.9</v>
@@ -3217,7 +3217,7 @@
         <v>4.1</v>
       </c>
       <c r="CB5" t="n">
-        <v>8.900000000000013</v>
+        <v>5.800000000000026</v>
       </c>
       <c r="CC5" t="n">
         <v>249.1</v>
@@ -3226,7 +3226,7 @@
         <v>36.2</v>
       </c>
       <c r="CE5" t="n">
-        <v>2.499999999999993</v>
+        <v>1.999999999999989</v>
       </c>
       <c r="CF5" t="n">
         <v>38.9</v>
@@ -3244,7 +3244,7 @@
         <v>-1.1</v>
       </c>
       <c r="CK5" t="n">
-        <v>5.099999999999994</v>
+        <v>4.699999999999994</v>
       </c>
       <c r="CL5" t="n">
         <v>59.5</v>
@@ -3280,7 +3280,7 @@
         <v>20.5</v>
       </c>
       <c r="CW5" t="n">
-        <v>5.90000000000002</v>
+        <v>0.3000000000000291</v>
       </c>
       <c r="CX5" t="n">
         <v>151.2</v>
@@ -3298,7 +3298,7 @@
         <v>2.6</v>
       </c>
       <c r="DC5" t="n">
-        <v>7.299999999999997</v>
+        <v>6.400000000000002</v>
       </c>
       <c r="DD5" t="n">
         <v>45.9</v>
@@ -3334,7 +3334,7 @@
         <v>12.2</v>
       </c>
       <c r="DO5" t="n">
-        <v>7.100000000000012</v>
+        <v>6.400000000000016</v>
       </c>
       <c r="DP5" t="n">
         <v>48.4</v>
@@ -3352,7 +3352,7 @@
         <v>5.7</v>
       </c>
       <c r="DU5" t="n">
-        <v>3.400000000000002</v>
+        <v>2.700000000000004</v>
       </c>
       <c r="DV5" t="n">
         <v>17.8</v>
@@ -3361,7 +3361,7 @@
         <v>8.5</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.799999999999994</v>
+        <v>1.099999999999984</v>
       </c>
       <c r="DY5" t="n">
         <v>49.8</v>
@@ -3370,7 +3370,7 @@
         <v>0.2</v>
       </c>
       <c r="EA5" t="n">
-        <v>62.89999999999998</v>
+        <v>44.79999999999991</v>
       </c>
       <c r="EB5" t="n">
         <v>355.7</v>
@@ -3379,7 +3379,7 @@
         <v>2.2</v>
       </c>
       <c r="ED5" t="n">
-        <v>10.1</v>
+        <v>2.299999999999999</v>
       </c>
       <c r="EE5" t="n">
         <v>56.7</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>18.19999999999998</v>
       </c>
       <c r="C6" t="n">
         <v>186.8</v>
@@ -3539,7 +3539,7 @@
         <v>7.6</v>
       </c>
       <c r="E6" t="n">
-        <v>3.699999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="F6" t="n">
         <v>23.2</v>
@@ -3548,7 +3548,7 @@
         <v>-5.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>10.1</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>30.80000000000001</v>
+        <v>26.40000000000004</v>
       </c>
       <c r="O6" t="n">
         <v>227.3</v>
@@ -3575,7 +3575,7 @@
         <v>11</v>
       </c>
       <c r="Q6" t="n">
-        <v>683.5999999999999</v>
+        <v>612.9999999999995</v>
       </c>
       <c r="R6" t="n">
         <v>4238.8</v>
@@ -3584,7 +3584,7 @@
         <v>4.9</v>
       </c>
       <c r="T6" t="n">
-        <v>76.49999999999994</v>
+        <v>71.49999999999989</v>
       </c>
       <c r="U6" t="n">
         <v>525.6</v>
@@ -3593,7 +3593,7 @@
         <v>5.2</v>
       </c>
       <c r="W6" t="n">
-        <v>8.399999999999999</v>
+        <v>8.200000000000003</v>
       </c>
       <c r="X6" t="n">
         <v>60.3</v>
@@ -3602,7 +3602,7 @@
         <v>7.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.40000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="AA6" t="n">
         <v>111.6</v>
@@ -3611,7 +3611,7 @@
         <v>1.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.5</v>
+        <v>4.200000000000003</v>
       </c>
       <c r="AD6" t="n">
         <v>25.6</v>
@@ -3620,7 +3620,7 @@
         <v>-3</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.399999999999999</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="AG6" t="n">
         <v>27.7</v>
@@ -3629,7 +3629,7 @@
         <v>-6.4</v>
       </c>
       <c r="AI6" t="n">
-        <v>974.6000000000004</v>
+        <v>877.8000000000002</v>
       </c>
       <c r="AJ6" t="n">
         <v>6170.6</v>
@@ -3638,7 +3638,7 @@
         <v>5.4</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.5</v>
+        <v>1.599999999999998</v>
       </c>
       <c r="AM6" t="n">
         <v>16.6</v>
@@ -3656,7 +3656,7 @@
         <v>-86.7</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>7.300000000000002</v>
       </c>
       <c r="AS6" t="n">
         <v>57</v>
@@ -3674,7 +3674,7 @@
         <v>11.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.300000000000004</v>
+        <v>3.500000000000011</v>
       </c>
       <c r="AY6" t="n">
         <v>34.7</v>
@@ -3683,7 +3683,7 @@
         <v>5.8</v>
       </c>
       <c r="BA6" t="n">
-        <v>6</v>
+        <v>5.099999999999994</v>
       </c>
       <c r="BB6" t="n">
         <v>40.8</v>
@@ -3692,7 +3692,7 @@
         <v>-2.2</v>
       </c>
       <c r="BD6" t="n">
-        <v>20.09999999999999</v>
+        <v>16</v>
       </c>
       <c r="BE6" t="n">
         <v>125.9</v>
@@ -3701,7 +3701,7 @@
         <v>2.3</v>
       </c>
       <c r="BG6" t="n">
-        <v>7.5</v>
+        <v>4.299999999999999</v>
       </c>
       <c r="BH6" t="n">
         <v>56.1</v>
@@ -3719,7 +3719,7 @@
         <v>-4</v>
       </c>
       <c r="BM6" t="n">
-        <v>13.8</v>
+        <v>27.5</v>
       </c>
       <c r="BN6" t="n">
         <v>-7.2</v>
@@ -3746,7 +3746,7 @@
         <v>6.9</v>
       </c>
       <c r="BV6" t="n">
-        <v>191.8</v>
+        <v>166.5000000000001</v>
       </c>
       <c r="BW6" t="n">
         <v>1228.6</v>
@@ -3755,7 +3755,7 @@
         <v>5.5</v>
       </c>
       <c r="BY6" t="n">
-        <v>179.0999999999999</v>
+        <v>155.7</v>
       </c>
       <c r="BZ6" t="n">
         <v>1135.2</v>
@@ -3764,7 +3764,7 @@
         <v>5.3</v>
       </c>
       <c r="CB6" t="n">
-        <v>48</v>
+        <v>39.09999999999999</v>
       </c>
       <c r="CC6" t="n">
         <v>258.2</v>
@@ -3791,7 +3791,7 @@
         <v>0.6</v>
       </c>
       <c r="CK6" t="n">
-        <v>8.900000000000006</v>
+        <v>3.800000000000011</v>
       </c>
       <c r="CL6" t="n">
         <v>63.7</v>
@@ -3800,7 +3800,7 @@
         <v>-12.5</v>
       </c>
       <c r="CN6" t="n">
-        <v>34</v>
+        <v>26.19999999999999</v>
       </c>
       <c r="CO6" t="n">
         <v>198</v>
@@ -3809,7 +3809,7 @@
         <v>3.8</v>
       </c>
       <c r="CQ6" t="n">
-        <v>11.2</v>
+        <v>10.30000000000001</v>
       </c>
       <c r="CR6" t="n">
         <v>66.5</v>
@@ -3827,7 +3827,7 @@
         <v>2.9</v>
       </c>
       <c r="CW6" t="n">
-        <v>25.59999999999999</v>
+        <v>19.69999999999997</v>
       </c>
       <c r="CX6" t="n">
         <v>168.5</v>
@@ -3854,7 +3854,7 @@
         <v>4.1</v>
       </c>
       <c r="DF6" t="n">
-        <v>99</v>
+        <v>98.0000000000001</v>
       </c>
       <c r="DG6" t="n">
         <v>703.2</v>
@@ -3863,7 +3863,7 @@
         <v>7.9</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.699999999999999</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="DJ6" t="n">
         <v>8.800000000000001</v>
@@ -3872,7 +3872,7 @@
         <v>-2.2</v>
       </c>
       <c r="DL6" t="n">
-        <v>15.90000000000001</v>
+        <v>8.20000000000001</v>
       </c>
       <c r="DM6" t="n">
         <v>173.3</v>
@@ -3881,7 +3881,7 @@
         <v>4.7</v>
       </c>
       <c r="DO6" t="n">
-        <v>11.59999999999999</v>
+        <v>4.499999999999979</v>
       </c>
       <c r="DP6" t="n">
         <v>56.3</v>
@@ -3890,7 +3890,7 @@
         <v>-15.8</v>
       </c>
       <c r="DR6" t="n">
-        <v>47.59999999999997</v>
+        <v>38.59999999999994</v>
       </c>
       <c r="DS6" t="n">
         <v>302.9</v>
@@ -3908,7 +3908,7 @@
         <v>16.7</v>
       </c>
       <c r="DX6" t="n">
-        <v>8.000000000000007</v>
+        <v>6.200000000000014</v>
       </c>
       <c r="DY6" t="n">
         <v>60</v>
@@ -4194,7 +4194,7 @@
         <v>8.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.8</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
         <v>-4.4</v>
@@ -4212,7 +4212,7 @@
         <v>-1.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>3.799999999999983</v>
       </c>
       <c r="AV7" t="n">
         <v>406.2</v>
@@ -4257,7 +4257,7 @@
         <v>13.8</v>
       </c>
       <c r="BJ7" t="n">
-        <v>22.59999999999999</v>
+        <v>16.09999999999996</v>
       </c>
       <c r="BK7" t="n">
         <v>202.3</v>
@@ -4284,7 +4284,7 @@
         <v>5.4</v>
       </c>
       <c r="BS7" t="n">
-        <v>2.299999999999997</v>
+        <v>1.899999999999991</v>
       </c>
       <c r="BT7" t="n">
         <v>46</v>
@@ -4320,7 +4320,7 @@
         <v>-5.4</v>
       </c>
       <c r="CE7" t="n">
-        <v>7.299999999999997</v>
+        <v>7.199999999999989</v>
       </c>
       <c r="CF7" t="n">
         <v>52.8</v>
@@ -4338,7 +4338,7 @@
         <v>8.1</v>
       </c>
       <c r="CK7" t="n">
-        <v>14</v>
+        <v>5.099999999999994</v>
       </c>
       <c r="CL7" t="n">
         <v>76.8</v>
@@ -4365,7 +4365,7 @@
         <v>-6</v>
       </c>
       <c r="CT7" t="n">
-        <v>5.299999999999983</v>
+        <v>2.699999999999992</v>
       </c>
       <c r="CU7" t="n">
         <v>164.9</v>
@@ -4383,7 +4383,7 @@
         <v>-4.6</v>
       </c>
       <c r="CZ7" t="n">
-        <v>15.90000000000001</v>
+        <v>15.50000000000002</v>
       </c>
       <c r="DA7" t="n">
         <v>140.5</v>
@@ -4392,7 +4392,7 @@
         <v>11.4</v>
       </c>
       <c r="DC7" t="n">
-        <v>6.800000000000004</v>
+        <v>6</v>
       </c>
       <c r="DD7" t="n">
         <v>63.2</v>
@@ -4464,7 +4464,7 @@
         <v>-0.9</v>
       </c>
       <c r="EA7" t="n">
-        <v>73.39999999999998</v>
+        <v>60.69999999999992</v>
       </c>
       <c r="EB7" t="n">
         <v>537</v>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.09999999999999</v>
+        <v>20.59999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>223.9</v>
@@ -4633,7 +4633,7 @@
         <v>-6.7</v>
       </c>
       <c r="E8" t="n">
-        <v>4.5</v>
+        <v>0.8999999999999981</v>
       </c>
       <c r="F8" t="n">
         <v>26.6</v>
@@ -4669,7 +4669,7 @@
         <v>12.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>657.8000000000002</v>
+        <v>629.0000000000005</v>
       </c>
       <c r="R8" t="n">
         <v>5516</v>
@@ -4687,7 +4687,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="W8" t="n">
-        <v>10.5</v>
+        <v>8.300000000000008</v>
       </c>
       <c r="X8" t="n">
         <v>83.7</v>
@@ -4705,7 +4705,7 @@
         <v>-2.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.800000000000004</v>
+        <v>3.400000000000005</v>
       </c>
       <c r="AD8" t="n">
         <v>32</v>
@@ -4723,7 +4723,7 @@
         <v>-21.2</v>
       </c>
       <c r="AI8" t="n">
-        <v>987.5999999999995</v>
+        <v>945.8999999999999</v>
       </c>
       <c r="AJ8" t="n">
         <v>8073.4</v>
@@ -4732,7 +4732,7 @@
         <v>2.9</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.899999999999999</v>
+        <v>0.799999999999998</v>
       </c>
       <c r="AM8" t="n">
         <v>22.8</v>
@@ -4750,7 +4750,7 @@
         <v>-48.8</v>
       </c>
       <c r="AR8" t="n">
-        <v>9.400000000000006</v>
+        <v>6.200000000000006</v>
       </c>
       <c r="AS8" t="n">
         <v>70.2</v>
@@ -4759,7 +4759,7 @@
         <v>-7.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>45.19999999999999</v>
+        <v>38.19999999999999</v>
       </c>
       <c r="AV8" t="n">
         <v>468.9</v>
@@ -4768,7 +4768,7 @@
         <v>8.9</v>
       </c>
       <c r="AX8" t="n">
-        <v>5.600000000000001</v>
+        <v>2.600000000000009</v>
       </c>
       <c r="AY8" t="n">
         <v>46.4</v>
@@ -4786,7 +4786,7 @@
         <v>-1.9</v>
       </c>
       <c r="BD8" t="n">
-        <v>15.30000000000001</v>
+        <v>12.59999999999999</v>
       </c>
       <c r="BE8" t="n">
         <v>161.9</v>
@@ -4822,7 +4822,7 @@
         <v>-47.3</v>
       </c>
       <c r="BP8" t="n">
-        <v>22.10000000000002</v>
+        <v>19</v>
       </c>
       <c r="BQ8" t="n">
         <v>642.2</v>
@@ -4831,7 +4831,7 @@
         <v>3.5</v>
       </c>
       <c r="BS8" t="n">
-        <v>6.299999999999997</v>
+        <v>4</v>
       </c>
       <c r="BT8" t="n">
         <v>57.4</v>
@@ -4840,7 +4840,7 @@
         <v>20.6</v>
       </c>
       <c r="BV8" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="BW8" t="n">
         <v>1647.5</v>
@@ -4849,7 +4849,7 @@
         <v>6</v>
       </c>
       <c r="BY8" t="n">
-        <v>10.39999999999989</v>
+        <v>6.899999999999691</v>
       </c>
       <c r="BZ8" t="n">
         <v>1513.9</v>
@@ -4858,7 +4858,7 @@
         <v>5.2</v>
       </c>
       <c r="CB8" t="n">
-        <v>44.10000000000002</v>
+        <v>34.50000000000005</v>
       </c>
       <c r="CC8" t="n">
         <v>291</v>
@@ -4903,7 +4903,7 @@
         <v>-0.1</v>
       </c>
       <c r="CQ8" t="n">
-        <v>10.19999999999999</v>
+        <v>8.299999999999979</v>
       </c>
       <c r="CR8" t="n">
         <v>82.5</v>
@@ -4912,7 +4912,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="CT8" t="n">
-        <v>13.09999999999999</v>
+        <v>7.800000000000008</v>
       </c>
       <c r="CU8" t="n">
         <v>200</v>
@@ -4921,7 +4921,7 @@
         <v>-10.4</v>
       </c>
       <c r="CW8" t="n">
-        <v>26.79999999999998</v>
+        <v>21.69999999999995</v>
       </c>
       <c r="CX8" t="n">
         <v>205.9</v>
@@ -4948,7 +4948,7 @@
         <v>7.9</v>
       </c>
       <c r="DF8" t="n">
-        <v>14</v>
+        <v>6.400000000000006</v>
       </c>
       <c r="DG8" t="n">
         <v>910</v>
@@ -4957,7 +4957,7 @@
         <v>6.1</v>
       </c>
       <c r="DI8" t="n">
-        <v>1.5</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="DJ8" t="n">
         <v>12.1</v>
@@ -4975,7 +4975,7 @@
         <v>-4.1</v>
       </c>
       <c r="DO8" t="n">
-        <v>4.899999999999991</v>
+        <v>0.2999999999999812</v>
       </c>
       <c r="DP8" t="n">
         <v>68.2</v>
@@ -4984,7 +4984,7 @@
         <v>-28</v>
       </c>
       <c r="DR8" t="n">
-        <v>46.59999999999997</v>
+        <v>44.29999999999992</v>
       </c>
       <c r="DS8" t="n">
         <v>388.1</v>
@@ -5002,7 +5002,7 @@
         <v>14</v>
       </c>
       <c r="DX8" t="n">
-        <v>8.599999999999994</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="DY8" t="n">
         <v>79.59999999999999</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>30.80000000000001</v>
+        <v>11.80000000000006</v>
       </c>
       <c r="O9" t="n">
         <v>326</v>
@@ -5225,7 +5225,7 @@
         <v>0.6</v>
       </c>
       <c r="T9" t="n">
-        <v>84.29999999999995</v>
+        <v>60.69999999999993</v>
       </c>
       <c r="U9" t="n">
         <v>787.7</v>
@@ -5261,7 +5261,7 @@
         <v>-12.1</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.099999999999995</v>
+        <v>0.4999999999999942</v>
       </c>
       <c r="AG9" t="n">
         <v>33</v>
@@ -5279,7 +5279,7 @@
         <v>2.1</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.399999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="AM9" t="n">
         <v>26.8</v>
@@ -5324,7 +5324,7 @@
         <v>5.4</v>
       </c>
       <c r="BA9" t="n">
-        <v>6.5</v>
+        <v>4.099999999999994</v>
       </c>
       <c r="BB9" t="n">
         <v>59.1</v>
@@ -5342,7 +5342,7 @@
         <v>-3.1</v>
       </c>
       <c r="BG9" t="n">
-        <v>7.599999999999994</v>
+        <v>4.999999999999979</v>
       </c>
       <c r="BH9" t="n">
         <v>88.40000000000001</v>
@@ -5360,7 +5360,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BM9" t="n">
-        <v>17.2</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="BN9" t="n">
         <v>-10.4</v>
@@ -5369,7 +5369,7 @@
         <v>-38.5</v>
       </c>
       <c r="BP9" t="n">
-        <v>69.5</v>
+        <v>47.39999999999998</v>
       </c>
       <c r="BQ9" t="n">
         <v>726.5</v>
@@ -5387,7 +5387,7 @@
         <v>15.8</v>
       </c>
       <c r="BV9" t="n">
-        <v>206.8000000000002</v>
+        <v>194.8000000000002</v>
       </c>
       <c r="BW9" t="n">
         <v>1873.3</v>
@@ -5396,7 +5396,7 @@
         <v>6.3</v>
       </c>
       <c r="BY9" t="n">
-        <v>192.5999999999999</v>
+        <v>182.2</v>
       </c>
       <c r="BZ9" t="n">
         <v>1722.6</v>
@@ -5423,7 +5423,7 @@
         <v>-6.5</v>
       </c>
       <c r="CH9" t="n">
-        <v>32</v>
+        <v>25.49999999999995</v>
       </c>
       <c r="CI9" t="n">
         <v>318.7</v>
@@ -5432,7 +5432,7 @@
         <v>10.8</v>
       </c>
       <c r="CK9" t="n">
-        <v>8.59999999999998</v>
+        <v>3.499999999999971</v>
       </c>
       <c r="CL9" t="n">
         <v>94</v>
@@ -5441,7 +5441,7 @@
         <v>-11.2</v>
       </c>
       <c r="CN9" t="n">
-        <v>32.59999999999997</v>
+        <v>25.39999999999998</v>
       </c>
       <c r="CO9" t="n">
         <v>286.2</v>
@@ -5459,7 +5459,7 @@
         <v>-10.2</v>
       </c>
       <c r="CT9" t="n">
-        <v>19.20000000000002</v>
+        <v>6.10000000000003</v>
       </c>
       <c r="CU9" t="n">
         <v>220.1</v>
@@ -5477,7 +5477,7 @@
         <v>-7.8</v>
       </c>
       <c r="CZ9" t="n">
-        <v>17.59999999999999</v>
+        <v>15.09999999999999</v>
       </c>
       <c r="DA9" t="n">
         <v>176.2</v>
@@ -5495,7 +5495,7 @@
         <v>7.1</v>
       </c>
       <c r="DF9" t="n">
-        <v>98.49999999999989</v>
+        <v>84.49999999999989</v>
       </c>
       <c r="DG9" t="n">
         <v>1020</v>
@@ -5513,7 +5513,7 @@
         <v>-14.9</v>
       </c>
       <c r="DL9" t="n">
-        <v>24.5</v>
+        <v>22.20000000000002</v>
       </c>
       <c r="DM9" t="n">
         <v>220.3</v>
@@ -5540,7 +5540,7 @@
         <v>-0.7</v>
       </c>
       <c r="DU9" t="n">
-        <v>3.000000000000004</v>
+        <v>2.200000000000006</v>
       </c>
       <c r="DV9" t="n">
         <v>33.6</v>
@@ -5558,7 +5558,7 @@
         <v>-2.1</v>
       </c>
       <c r="EA9" t="n">
-        <v>56.70000000000005</v>
+        <v>56.30000000000008</v>
       </c>
       <c r="EB9" t="n">
         <v>690.7</v>
@@ -5835,7 +5835,7 @@
         <v>11.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.1</v>
+        <v>14.6</v>
       </c>
       <c r="AP10" t="n">
         <v>-6.1</v>
@@ -5880,7 +5880,7 @@
         <v>-2.5</v>
       </c>
       <c r="BD10" t="n">
-        <v>19.19999999999999</v>
+        <v>13.80000000000001</v>
       </c>
       <c r="BE10" t="n">
         <v>191.4</v>
@@ -5898,7 +5898,7 @@
         <v>15</v>
       </c>
       <c r="BJ10" t="n">
-        <v>15.99999999999997</v>
+        <v>3.19999999999996</v>
       </c>
       <c r="BK10" t="n">
         <v>272.9</v>
@@ -5925,7 +5925,7 @@
         <v>2.4</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.6999999999999957</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="BT10" t="n">
         <v>69.90000000000001</v>
@@ -5961,7 +5961,7 @@
         <v>-17.7</v>
       </c>
       <c r="CE10" t="n">
-        <v>7</v>
+        <v>6.999999999999993</v>
       </c>
       <c r="CF10" t="n">
         <v>70.59999999999999</v>
@@ -6006,7 +6006,7 @@
         <v>-11.4</v>
       </c>
       <c r="CT10" t="n">
-        <v>23.5</v>
+        <v>4.299999999999979</v>
       </c>
       <c r="CU10" t="n">
         <v>251.4</v>
@@ -6033,7 +6033,7 @@
         <v>10.2</v>
       </c>
       <c r="DC10" t="n">
-        <v>7.900000000000006</v>
+        <v>6.200000000000003</v>
       </c>
       <c r="DD10" t="n">
         <v>88.5</v>
@@ -6051,7 +6051,7 @@
         <v>4.9</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="DJ10" t="n">
         <v>13.8</v>
@@ -6069,7 +6069,7 @@
         <v>-5.2</v>
       </c>
       <c r="DO10" t="n">
-        <v>6.699999999999989</v>
+        <v>4.299999999999968</v>
       </c>
       <c r="DP10" t="n">
         <v>84.7</v>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.89999999999998</v>
+        <v>15.19999999999999</v>
       </c>
       <c r="C11" t="n">
         <v>296.1</v>
@@ -6283,7 +6283,7 @@
         <v>-26.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0.899999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>15.4</v>
@@ -6310,7 +6310,7 @@
         <v>9.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>128.1000000000004</v>
+        <v>99.30000000000112</v>
       </c>
       <c r="R11" t="n">
         <v>7374.9</v>
@@ -6337,7 +6337,7 @@
         <v>7.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.300000000000018</v>
+        <v>0.300000000000018</v>
       </c>
       <c r="AA11" t="n">
         <v>191.4</v>
@@ -6355,7 +6355,7 @@
         <v>-14</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.799999999999997</v>
+        <v>1.399999999999992</v>
       </c>
       <c r="AG11" t="n">
         <v>39.2</v>
@@ -6364,7 +6364,7 @@
         <v>-21.6</v>
       </c>
       <c r="AI11" t="n">
-        <v>134.6000000000006</v>
+        <v>98.89999999999986</v>
       </c>
       <c r="AJ11" t="n">
         <v>10888</v>
@@ -6373,7 +6373,7 @@
         <v>1.4</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.9000000000000048</v>
+        <v>0.4000000000000048</v>
       </c>
       <c r="AM11" t="n">
         <v>33.8</v>
@@ -6382,7 +6382,7 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>19.5</v>
+        <v>11.4</v>
       </c>
       <c r="AP11" t="n">
         <v>-4.9</v>
@@ -6400,7 +6400,7 @@
         <v>-7.1</v>
       </c>
       <c r="AU11" t="n">
-        <v>48.10000000000002</v>
+        <v>43.70000000000016</v>
       </c>
       <c r="AV11" t="n">
         <v>602.8</v>
@@ -6409,7 +6409,7 @@
         <v>3.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.899999999999999</v>
+        <v>2.700000000000003</v>
       </c>
       <c r="AY11" t="n">
         <v>69.8</v>
@@ -6418,7 +6418,7 @@
         <v>15.6</v>
       </c>
       <c r="BA11" t="n">
-        <v>4.899999999999991</v>
+        <v>4.799999999999981</v>
       </c>
       <c r="BB11" t="n">
         <v>71.90000000000001</v>
@@ -6445,7 +6445,7 @@
         <v>15.2</v>
       </c>
       <c r="BJ11" t="n">
-        <v>21.80000000000001</v>
+        <v>5.800000000000042</v>
       </c>
       <c r="BK11" t="n">
         <v>304.4</v>
@@ -6463,7 +6463,7 @@
         <v>-31.6</v>
       </c>
       <c r="BP11" t="n">
-        <v>74.19999999999993</v>
+        <v>67.99999999999989</v>
       </c>
       <c r="BQ11" t="n">
         <v>868.3</v>
@@ -6472,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="BS11" t="n">
-        <v>7.399999999999991</v>
+        <v>6.699999999999995</v>
       </c>
       <c r="BT11" t="n">
         <v>77</v>
@@ -6499,7 +6499,7 @@
         <v>3.9</v>
       </c>
       <c r="CB11" t="n">
-        <v>11.19999999999992</v>
+        <v>1.899999999999844</v>
       </c>
       <c r="CC11" t="n">
         <v>392.1</v>
@@ -6517,7 +6517,7 @@
         <v>-7.6</v>
       </c>
       <c r="CH11" t="n">
-        <v>5.800000000000011</v>
+        <v>5.600000000000023</v>
       </c>
       <c r="CI11" t="n">
         <v>385.9</v>
@@ -6526,7 +6526,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="CK11" t="n">
-        <v>2.799999999999983</v>
+        <v>2.299999999999953</v>
       </c>
       <c r="CL11" t="n">
         <v>118.1</v>
@@ -6544,7 +6544,7 @@
         <v>-2.7</v>
       </c>
       <c r="CQ11" t="n">
-        <v>5.499999999999989</v>
+        <v>5.099999999999998</v>
       </c>
       <c r="CR11" t="n">
         <v>107</v>
@@ -6553,7 +6553,7 @@
         <v>-10.6</v>
       </c>
       <c r="CT11" t="n">
-        <v>27.5</v>
+        <v>4</v>
       </c>
       <c r="CU11" t="n">
         <v>294.4</v>
@@ -6589,7 +6589,7 @@
         <v>7.6</v>
       </c>
       <c r="DF11" t="n">
-        <v>10.2999999999999</v>
+        <v>0.3999999999996806</v>
       </c>
       <c r="DG11" t="n">
         <v>1238.1</v>
@@ -6598,7 +6598,7 @@
         <v>4.5</v>
       </c>
       <c r="DI11" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="DJ11" t="n">
         <v>15.6</v>
@@ -6607,7 +6607,7 @@
         <v>-11.9</v>
       </c>
       <c r="DL11" t="n">
-        <v>6.199999999999989</v>
+        <v>4.699999999999989</v>
       </c>
       <c r="DM11" t="n">
         <v>266.2</v>
@@ -6625,7 +6625,7 @@
         <v>-22.5</v>
       </c>
       <c r="DR11" t="n">
-        <v>6.60000000000008</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="DS11" t="n">
         <v>529.2</v>
@@ -6634,7 +6634,7 @@
         <v>-0.8</v>
       </c>
       <c r="DU11" t="n">
-        <v>4.199999999999996</v>
+        <v>2.2</v>
       </c>
       <c r="DV11" t="n">
         <v>41.6</v>
@@ -6643,7 +6643,7 @@
         <v>11.8</v>
       </c>
       <c r="DX11" t="n">
-        <v>3.299999999999994</v>
+        <v>2.999999999999983</v>
       </c>
       <c r="DY11" t="n">
         <v>102.7</v>
@@ -6652,7 +6652,7 @@
         <v>-3.1</v>
       </c>
       <c r="EA11" t="n">
-        <v>15.60000000000014</v>
+        <v>10.50000000000025</v>
       </c>
       <c r="EB11" t="n">
         <v>805</v>
@@ -6821,7 +6821,7 @@
         <v>-7.8</v>
       </c>
       <c r="E12" t="n">
-        <v>5.500000000000002</v>
+        <v>4.200000000000005</v>
       </c>
       <c r="F12" t="n">
         <v>43.2</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>24.79999999999998</v>
+        <v>17.59999999999994</v>
       </c>
       <c r="O12" t="n">
         <v>429</v>
@@ -6857,7 +6857,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>577.3</v>
+        <v>449.1999999999996</v>
       </c>
       <c r="R12" t="n">
         <v>8088.8</v>
@@ -6866,7 +6866,7 @@
         <v>-0.8</v>
       </c>
       <c r="T12" t="n">
-        <v>59.59999999999999</v>
+        <v>49.09999999999999</v>
       </c>
       <c r="U12" t="n">
         <v>1038.8</v>
@@ -6875,7 +6875,7 @@
         <v>4</v>
       </c>
       <c r="W12" t="n">
-        <v>5.399999999999999</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>124.4</v>
@@ -6884,7 +6884,7 @@
         <v>6.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.39999999999999</v>
+        <v>14.09999999999997</v>
       </c>
       <c r="AA12" t="n">
         <v>211.1</v>
@@ -6893,7 +6893,7 @@
         <v>-10.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.299999999999995</v>
+        <v>3.39999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>45.5</v>
@@ -6902,7 +6902,7 @@
         <v>-13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.800000000000001</v>
+        <v>4.000000000000004</v>
       </c>
       <c r="AG12" t="n">
         <v>45</v>
@@ -6911,7 +6911,7 @@
         <v>-19.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>854.4999999999991</v>
+        <v>719.8999999999985</v>
       </c>
       <c r="AJ12" t="n">
         <v>11904.9</v>
@@ -6920,7 +6920,7 @@
         <v>0.6</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.099999999999997</v>
+        <v>0.1999999999999922</v>
       </c>
       <c r="AM12" t="n">
         <v>37.2</v>
@@ -6938,7 +6938,7 @@
         <v>-111.7</v>
       </c>
       <c r="AR12" t="n">
-        <v>9.70000000000001</v>
+        <v>7.400000000000016</v>
       </c>
       <c r="AS12" t="n">
         <v>102.5</v>
@@ -6965,7 +6965,7 @@
         <v>15</v>
       </c>
       <c r="BA12" t="n">
-        <v>6.800000000000009</v>
+        <v>1.900000000000018</v>
       </c>
       <c r="BB12" t="n">
         <v>78.40000000000001</v>
@@ -6974,7 +6974,7 @@
         <v>0.1</v>
       </c>
       <c r="BD12" t="n">
-        <v>19</v>
+        <v>17.19999999999999</v>
       </c>
       <c r="BE12" t="n">
         <v>227.9</v>
@@ -6983,7 +6983,7 @@
         <v>-5.9</v>
       </c>
       <c r="BG12" t="n">
-        <v>5.299999999999997</v>
+        <v>4.099999999999994</v>
       </c>
       <c r="BH12" t="n">
         <v>115.1</v>
@@ -6992,7 +6992,7 @@
         <v>14.9</v>
       </c>
       <c r="BJ12" t="n">
-        <v>22.49999999999999</v>
+        <v>0.699999999999978</v>
       </c>
       <c r="BK12" t="n">
         <v>311.7</v>
@@ -7001,7 +7001,7 @@
         <v>7.3</v>
       </c>
       <c r="BM12" t="n">
-        <v>48.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="BN12" t="n">
         <v>-23.9</v>
@@ -7046,7 +7046,7 @@
         <v>4.5</v>
       </c>
       <c r="CB12" t="n">
-        <v>48.60000000000002</v>
+        <v>37.40000000000011</v>
       </c>
       <c r="CC12" t="n">
         <v>444.8</v>
@@ -7055,7 +7055,7 @@
         <v>-16.3</v>
       </c>
       <c r="CE12" t="n">
-        <v>4.500000000000009</v>
+        <v>2.100000000000018</v>
       </c>
       <c r="CF12" t="n">
         <v>86</v>
@@ -7064,7 +7064,7 @@
         <v>-7.6</v>
       </c>
       <c r="CH12" t="n">
-        <v>25.7</v>
+        <v>19.89999999999999</v>
       </c>
       <c r="CI12" t="n">
         <v>411.6</v>
@@ -7073,7 +7073,7 @@
         <v>5.6</v>
       </c>
       <c r="CK12" t="n">
-        <v>25.50000000000002</v>
+        <v>22.70000000000004</v>
       </c>
       <c r="CL12" t="n">
         <v>115</v>
@@ -7082,7 +7082,7 @@
         <v>-15.8</v>
       </c>
       <c r="CN12" t="n">
-        <v>28.20000000000001</v>
+        <v>26.10000000000004</v>
       </c>
       <c r="CO12" t="n">
         <v>369.3</v>
@@ -7100,7 +7100,7 @@
         <v>-14.1</v>
       </c>
       <c r="CT12" t="n">
-        <v>43.40000000000001</v>
+        <v>15.90000000000001</v>
       </c>
       <c r="CU12" t="n">
         <v>376.4</v>
@@ -7109,7 +7109,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="CW12" t="n">
-        <v>29.70000000000002</v>
+        <v>23.10000000000005</v>
       </c>
       <c r="CX12" t="n">
         <v>301.5</v>
@@ -7118,7 +7118,7 @@
         <v>-7.6</v>
       </c>
       <c r="CZ12" t="n">
-        <v>9.800000000000011</v>
+        <v>8.400000000000034</v>
       </c>
       <c r="DA12" t="n">
         <v>230.3</v>
@@ -7127,7 +7127,7 @@
         <v>5.6</v>
       </c>
       <c r="DC12" t="n">
-        <v>3.100000000000009</v>
+        <v>1.600000000000023</v>
       </c>
       <c r="DD12" t="n">
         <v>98.3</v>
@@ -7136,7 +7136,7 @@
         <v>-0.5</v>
       </c>
       <c r="DF12" t="n">
-        <v>89.2</v>
+        <v>78.90000000000011</v>
       </c>
       <c r="DG12" t="n">
         <v>1319</v>
@@ -7154,7 +7154,7 @@
         <v>6.5</v>
       </c>
       <c r="DL12" t="n">
-        <v>22.10000000000001</v>
+        <v>15.90000000000002</v>
       </c>
       <c r="DM12" t="n">
         <v>299.2</v>
@@ -7163,7 +7163,7 @@
         <v>-4.2</v>
       </c>
       <c r="DO12" t="n">
-        <v>14.2</v>
+        <v>10.39999999999999</v>
       </c>
       <c r="DP12" t="n">
         <v>103</v>
@@ -7172,7 +7172,7 @@
         <v>-17</v>
       </c>
       <c r="DR12" t="n">
-        <v>36.69999999999997</v>
+        <v>30.09999999999989</v>
       </c>
       <c r="DS12" t="n">
         <v>589.2</v>
@@ -7190,7 +7190,7 @@
         <v>14.5</v>
       </c>
       <c r="DX12" t="n">
-        <v>6.199999999999999</v>
+        <v>2.900000000000005</v>
       </c>
       <c r="DY12" t="n">
         <v>119</v>
@@ -7199,7 +7199,7 @@
         <v>0.7</v>
       </c>
       <c r="EA12" t="n">
-        <v>44.09999999999991</v>
+        <v>28.49999999999977</v>
       </c>
       <c r="EB12" t="n">
         <v>845.7</v>
@@ -7208,7 +7208,7 @@
         <v>1.9</v>
       </c>
       <c r="ED12" t="n">
-        <v>13.99999999999999</v>
+        <v>11.79999999999999</v>
       </c>
       <c r="EE12" t="n">
         <v>154.8</v>
@@ -7359,7 +7359,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.5</v>
+        <v>20.59999999999999</v>
       </c>
       <c r="C13" t="n">
         <v>77.09999999999999</v>
@@ -7368,7 +7368,7 @@
         <v>13.2</v>
       </c>
       <c r="E13" t="n">
-        <v>6.200000000000001</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="F13" t="n">
         <v>11.4</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.1</v>
+        <v>0.899999999999999</v>
       </c>
       <c r="I13" t="n">
         <v>2.3</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>35.59999999999999</v>
+        <v>10.80000000000001</v>
       </c>
       <c r="O13" t="n">
         <v>61.1</v>
@@ -7404,7 +7404,7 @@
         <v>-1</v>
       </c>
       <c r="Q13" t="n">
-        <v>747.2</v>
+        <v>169.9000000000001</v>
       </c>
       <c r="R13" t="n">
         <v>1349.2</v>
@@ -7413,7 +7413,7 @@
         <v>-0.8</v>
       </c>
       <c r="T13" t="n">
-        <v>88.80000000000001</v>
+        <v>29.20000000000002</v>
       </c>
       <c r="U13" t="n">
         <v>141.4</v>
@@ -7422,7 +7422,7 @@
         <v>-3.9</v>
       </c>
       <c r="W13" t="n">
-        <v>10.3</v>
+        <v>4.900000000000002</v>
       </c>
       <c r="X13" t="n">
         <v>21.2</v>
@@ -7431,7 +7431,7 @@
         <v>18.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.6</v>
+        <v>2.20000000000001</v>
       </c>
       <c r="AA13" t="n">
         <v>41.6</v>
@@ -7458,7 +7458,7 @@
         <v>-2.6</v>
       </c>
       <c r="AI13" t="n">
-        <v>1102</v>
+        <v>247.5000000000009</v>
       </c>
       <c r="AJ13" t="n">
         <v>1963.1</v>
@@ -7467,7 +7467,7 @@
         <v>0.4</v>
       </c>
       <c r="AL13" t="n">
-        <v>3</v>
+        <v>1.900000000000003</v>
       </c>
       <c r="AM13" t="n">
         <v>4.9</v>
@@ -7485,7 +7485,7 @@
         <v>-39.5</v>
       </c>
       <c r="AR13" t="n">
-        <v>10.4</v>
+        <v>0.6999999999999904</v>
       </c>
       <c r="AS13" t="n">
         <v>18.9</v>
@@ -7494,7 +7494,7 @@
         <v>-4.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>58.80000000000001</v>
+        <v>14.90000000000003</v>
       </c>
       <c r="AV13" t="n">
         <v>89.09999999999999</v>
@@ -7503,7 +7503,7 @@
         <v>-3.2</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.5</v>
+        <v>6.699999999999996</v>
       </c>
       <c r="AY13" t="n">
         <v>10.5</v>
@@ -7521,7 +7521,7 @@
         <v>11.1</v>
       </c>
       <c r="BD13" t="n">
-        <v>23.8</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="BE13" t="n">
         <v>41.4</v>
@@ -7530,7 +7530,7 @@
         <v>3.5</v>
       </c>
       <c r="BG13" t="n">
-        <v>11.9</v>
+        <v>6.600000000000003</v>
       </c>
       <c r="BH13" t="n">
         <v>14.8</v>
@@ -7539,7 +7539,7 @@
         <v>5.7</v>
       </c>
       <c r="BJ13" t="n">
-        <v>26.60000000000001</v>
+        <v>4.100000000000019</v>
       </c>
       <c r="BK13" t="n">
         <v>46.1</v>
@@ -7557,7 +7557,7 @@
         <v>650</v>
       </c>
       <c r="BP13" t="n">
-        <v>99.29999999999998</v>
+        <v>36.09999999999992</v>
       </c>
       <c r="BQ13" t="n">
         <v>136.2</v>
@@ -7566,7 +7566,7 @@
         <v>-0.9</v>
       </c>
       <c r="BS13" t="n">
-        <v>7.300000000000001</v>
+        <v>0.8999999999999906</v>
       </c>
       <c r="BT13" t="n">
         <v>15.7</v>
@@ -7575,7 +7575,7 @@
         <v>13.8</v>
       </c>
       <c r="BV13" t="n">
-        <v>226.6</v>
+        <v>38.59999999999999</v>
       </c>
       <c r="BW13" t="n">
         <v>406.1</v>
@@ -7584,7 +7584,7 @@
         <v>4.7</v>
       </c>
       <c r="BY13" t="n">
-        <v>207.4</v>
+        <v>31.20000000000002</v>
       </c>
       <c r="BZ13" t="n">
         <v>375.7</v>
@@ -7593,7 +7593,7 @@
         <v>4.3</v>
       </c>
       <c r="CB13" t="n">
-        <v>51.80000000000001</v>
+        <v>3.199999999999989</v>
       </c>
       <c r="CC13" t="n">
         <v>107.8</v>
@@ -7602,7 +7602,7 @@
         <v>-0.6</v>
       </c>
       <c r="CE13" t="n">
-        <v>8.499999999999998</v>
+        <v>3.999999999999989</v>
       </c>
       <c r="CF13" t="n">
         <v>14.4</v>
@@ -7611,7 +7611,7 @@
         <v>3.6</v>
       </c>
       <c r="CH13" t="n">
-        <v>34.8</v>
+        <v>9.099999999999998</v>
       </c>
       <c r="CI13" t="n">
         <v>57.6</v>
@@ -7629,7 +7629,7 @@
         <v>2.5</v>
       </c>
       <c r="CN13" t="n">
-        <v>33.4</v>
+        <v>5.199999999999989</v>
       </c>
       <c r="CO13" t="n">
         <v>57.8</v>
@@ -7638,7 +7638,7 @@
         <v>1.6</v>
       </c>
       <c r="CQ13" t="n">
-        <v>10.7</v>
+        <v>5.499999999999989</v>
       </c>
       <c r="CR13" t="n">
         <v>19.7</v>
@@ -7656,7 +7656,7 @@
         <v>14.4</v>
       </c>
       <c r="CW13" t="n">
-        <v>32.7</v>
+        <v>2.999999999999982</v>
       </c>
       <c r="CX13" t="n">
         <v>60.8</v>
@@ -7665,7 +7665,7 @@
         <v>2.9</v>
       </c>
       <c r="CZ13" t="n">
-        <v>19.4</v>
+        <v>9.599999999999987</v>
       </c>
       <c r="DA13" t="n">
         <v>30.9</v>
@@ -7674,7 +7674,7 @@
         <v>1.3</v>
       </c>
       <c r="DC13" t="n">
-        <v>8.300000000000001</v>
+        <v>5.199999999999992</v>
       </c>
       <c r="DD13" t="n">
         <v>15.1</v>
@@ -7683,7 +7683,7 @@
         <v>20.8</v>
       </c>
       <c r="DF13" t="n">
-        <v>128.1</v>
+        <v>38.89999999999999</v>
       </c>
       <c r="DG13" t="n">
         <v>207.8</v>
@@ -7701,7 +7701,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="DL13" t="n">
-        <v>27.7</v>
+        <v>5.599999999999991</v>
       </c>
       <c r="DM13" t="n">
         <v>52.8</v>
@@ -7719,7 +7719,7 @@
         <v>-18.2</v>
       </c>
       <c r="DR13" t="n">
-        <v>55.8</v>
+        <v>19.10000000000003</v>
       </c>
       <c r="DS13" t="n">
         <v>94</v>
@@ -7728,7 +7728,7 @@
         <v>1.3</v>
       </c>
       <c r="DU13" t="n">
-        <v>3.699999999999999</v>
+        <v>1.399999999999995</v>
       </c>
       <c r="DV13" t="n">
         <v>7.2</v>
@@ -7737,7 +7737,7 @@
         <v>10.8</v>
       </c>
       <c r="DX13" t="n">
-        <v>9.400000000000002</v>
+        <v>3.200000000000003</v>
       </c>
       <c r="DY13" t="n">
         <v>17.6</v>
@@ -7746,7 +7746,7 @@
         <v>-4.3</v>
       </c>
       <c r="EA13" t="n">
-        <v>76.80000000000001</v>
+        <v>32.7000000000001</v>
       </c>
       <c r="EB13" t="n">
         <v>101.6</v>
@@ -8167,7 +8167,7 @@
         <v>-5.7</v>
       </c>
       <c r="CK14" t="n">
-        <v>9.5</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="CL14" t="n">
         <v>48.2</v>
@@ -8516,7 +8516,7 @@
         <v>-6.8</v>
       </c>
       <c r="W15" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="X15" t="n">
         <v>42.4</v>
@@ -8588,7 +8588,7 @@
         <v>-2.9</v>
       </c>
       <c r="AU15" t="n">
-        <v>58.59999999999997</v>
+        <v>41.89999999999998</v>
       </c>
       <c r="AV15" t="n">
         <v>214.5</v>
@@ -8642,7 +8642,7 @@
         <v>4.1</v>
       </c>
       <c r="BM15" t="n">
-        <v>3.899999999999999</v>
+        <v>7.699999999999999</v>
       </c>
       <c r="BN15" t="n">
         <v>-6.9</v>
@@ -8705,7 +8705,7 @@
         <v>-5.9</v>
       </c>
       <c r="CH15" t="n">
-        <v>28</v>
+        <v>27.49999999999999</v>
       </c>
       <c r="CI15" t="n">
         <v>126.4</v>
@@ -8714,7 +8714,7 @@
         <v>-5.5</v>
       </c>
       <c r="CK15" t="n">
-        <v>13.2</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="CL15" t="n">
         <v>66.90000000000001</v>
@@ -8786,7 +8786,7 @@
         <v>2.3</v>
       </c>
       <c r="DI15" t="n">
-        <v>1.4</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="DJ15" t="n">
         <v>4.9</v>
@@ -9000,7 +9000,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2999999999999794</v>
+        <v>0.09999999999995879</v>
       </c>
       <c r="C16" t="n">
         <v>148.4</v>
@@ -9009,7 +9009,7 @@
         <v>-2.9</v>
       </c>
       <c r="E16" t="n">
-        <v>17.8</v>
+        <v>16.5</v>
       </c>
       <c r="F16" t="n">
         <v>19.2</v>
@@ -9018,7 +9018,7 @@
         <v>-7.7</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6999999999999993</v>
+        <v>0.399999999999999</v>
       </c>
       <c r="I16" t="n">
         <v>4.6</v>
@@ -9054,7 +9054,7 @@
         <v>-5.6</v>
       </c>
       <c r="T16" t="n">
-        <v>11.39999999999992</v>
+        <v>10.79999999999987</v>
       </c>
       <c r="U16" t="n">
         <v>374.3</v>
@@ -9063,7 +9063,7 @@
         <v>-6.4</v>
       </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>10.1</v>
       </c>
       <c r="X16" t="n">
         <v>52</v>
@@ -9072,7 +9072,7 @@
         <v>2.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>12.09999999999999</v>
+        <v>9.899999999999983</v>
       </c>
       <c r="AA16" t="n">
         <v>93.3</v>
@@ -9108,7 +9108,7 @@
         <v>-1.8</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.399999999999999</v>
       </c>
       <c r="AM16" t="n">
         <v>13.9</v>
@@ -9117,7 +9117,7 @@
         <v>3</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AP16" t="n">
         <v>2.4</v>
@@ -9126,7 +9126,7 @@
         <v>-61.9</v>
       </c>
       <c r="AR16" t="n">
-        <v>5.100000000000001</v>
+        <v>4.900000000000009</v>
       </c>
       <c r="AS16" t="n">
         <v>42.3</v>
@@ -9207,7 +9207,7 @@
         <v>-3</v>
       </c>
       <c r="BS16" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="BT16" t="n">
         <v>47.3</v>
@@ -9288,7 +9288,7 @@
         <v>-7</v>
       </c>
       <c r="CT16" t="n">
-        <v>142</v>
+        <v>131.8</v>
       </c>
       <c r="CU16" t="n">
         <v>152.7</v>
@@ -9306,7 +9306,7 @@
         <v>-5.6</v>
       </c>
       <c r="CZ16" t="n">
-        <v>3.999999999999982</v>
+        <v>1.699999999999974</v>
       </c>
       <c r="DA16" t="n">
         <v>85.40000000000001</v>
@@ -9315,7 +9315,7 @@
         <v>-3.4</v>
       </c>
       <c r="DC16" t="n">
-        <v>6.600000000000001</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="DD16" t="n">
         <v>32.1</v>
@@ -9360,7 +9360,7 @@
         <v>-16.4</v>
       </c>
       <c r="DR16" t="n">
-        <v>3.200000000000024</v>
+        <v>1.100000000000037</v>
       </c>
       <c r="DS16" t="n">
         <v>229.9</v>
@@ -9369,7 +9369,7 @@
         <v>-2</v>
       </c>
       <c r="DU16" t="n">
-        <v>1.599999999999997</v>
+        <v>1.299999999999996</v>
       </c>
       <c r="DV16" t="n">
         <v>18.5</v>
@@ -9387,7 +9387,7 @@
         <v>-3</v>
       </c>
       <c r="EA16" t="n">
-        <v>29.70000000000002</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="EB16" t="n">
         <v>281.6</v>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.69999999999999</v>
+        <v>10.40000000000001</v>
       </c>
       <c r="C17" t="n">
         <v>169.4</v>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>30.79999999999998</v>
+        <v>23.39999999999997</v>
       </c>
       <c r="O17" t="n">
         <v>185.7</v>
@@ -9592,7 +9592,7 @@
         <v>-8</v>
       </c>
       <c r="Q17" t="n">
-        <v>584.1000000000004</v>
+        <v>541.1000000000004</v>
       </c>
       <c r="R17" t="n">
         <v>3800.3</v>
@@ -9601,7 +9601,7 @@
         <v>-3.9</v>
       </c>
       <c r="T17" t="n">
-        <v>84.5</v>
+        <v>73.10000000000008</v>
       </c>
       <c r="U17" t="n">
         <v>448.9</v>
@@ -9646,7 +9646,7 @@
         <v>12.6</v>
       </c>
       <c r="AI17" t="n">
-        <v>904.5999999999995</v>
+        <v>775.1999999999994</v>
       </c>
       <c r="AJ17" t="n">
         <v>5849.2</v>
@@ -9655,7 +9655,7 @@
         <v>-1</v>
       </c>
       <c r="AL17" t="n">
-        <v>3.399999999999999</v>
+        <v>2.799999999999999</v>
       </c>
       <c r="AM17" t="n">
         <v>17.4</v>
@@ -9691,7 +9691,7 @@
         <v>-6.2</v>
       </c>
       <c r="AX17" t="n">
-        <v>5</v>
+        <v>3.099999999999994</v>
       </c>
       <c r="AY17" t="n">
         <v>35.1</v>
@@ -9700,7 +9700,7 @@
         <v>1.4</v>
       </c>
       <c r="BA17" t="n">
-        <v>2.700000000000002</v>
+        <v>1.300000000000003</v>
       </c>
       <c r="BB17" t="n">
         <v>34.7</v>
@@ -9718,7 +9718,7 @@
         <v>-4.7</v>
       </c>
       <c r="BG17" t="n">
-        <v>11.90000000000001</v>
+        <v>7.300000000000011</v>
       </c>
       <c r="BH17" t="n">
         <v>65.7</v>
@@ -9727,7 +9727,7 @@
         <v>10.4</v>
       </c>
       <c r="BJ17" t="n">
-        <v>23.49999999999999</v>
+        <v>10.99999999999999</v>
       </c>
       <c r="BK17" t="n">
         <v>177.3</v>
@@ -9745,7 +9745,7 @@
         <v>65.3</v>
       </c>
       <c r="BP17" t="n">
-        <v>65.10000000000002</v>
+        <v>33.40000000000002</v>
       </c>
       <c r="BQ17" t="n">
         <v>456.3</v>
@@ -9763,7 +9763,7 @@
         <v>12.7</v>
       </c>
       <c r="BV17" t="n">
-        <v>221.1999999999998</v>
+        <v>159.3999999999996</v>
       </c>
       <c r="BW17" t="n">
         <v>1358.3</v>
@@ -9772,7 +9772,7 @@
         <v>6.2</v>
       </c>
       <c r="BY17" t="n">
-        <v>197.5999999999999</v>
+        <v>142.4999999999999</v>
       </c>
       <c r="BZ17" t="n">
         <v>1236.6</v>
@@ -9790,7 +9790,7 @@
         <v>-0.2</v>
       </c>
       <c r="CE17" t="n">
-        <v>5.899999999999999</v>
+        <v>4.699999999999992</v>
       </c>
       <c r="CF17" t="n">
         <v>40.9</v>
@@ -9799,7 +9799,7 @@
         <v>-3.1</v>
       </c>
       <c r="CH17" t="n">
-        <v>9.900000000000013</v>
+        <v>2.300000000000026</v>
       </c>
       <c r="CI17" t="n">
         <v>192.7</v>
@@ -9808,7 +9808,7 @@
         <v>-2.4</v>
       </c>
       <c r="CK17" t="n">
-        <v>8.599999999999985</v>
+        <v>4.299999999999981</v>
       </c>
       <c r="CL17" t="n">
         <v>95.7</v>
@@ -9817,7 +9817,7 @@
         <v>52.6</v>
       </c>
       <c r="CN17" t="n">
-        <v>19.30000000000001</v>
+        <v>14.50000000000001</v>
       </c>
       <c r="CO17" t="n">
         <v>144.7</v>
@@ -9835,7 +9835,7 @@
         <v>-4.3</v>
       </c>
       <c r="CT17" t="n">
-        <v>149.2</v>
+        <v>7.199999999999989</v>
       </c>
       <c r="CU17" t="n">
         <v>183.9</v>
@@ -9853,7 +9853,7 @@
         <v>0.2</v>
       </c>
       <c r="CZ17" t="n">
-        <v>22.60000000000001</v>
+        <v>18.60000000000003</v>
       </c>
       <c r="DA17" t="n">
         <v>103</v>
@@ -9871,7 +9871,7 @@
         <v>-14</v>
       </c>
       <c r="DF17" t="n">
-        <v>99.30000000000007</v>
+        <v>74.69999999999997</v>
       </c>
       <c r="DG17" t="n">
         <v>690.6</v>
@@ -9889,7 +9889,7 @@
         <v>4</v>
       </c>
       <c r="DL17" t="n">
-        <v>16.70000000000002</v>
+        <v>12.50000000000001</v>
       </c>
       <c r="DM17" t="n">
         <v>148.3</v>
@@ -9898,7 +9898,7 @@
         <v>0.5</v>
       </c>
       <c r="DO17" t="n">
-        <v>1.5</v>
+        <v>0.4000000000000059</v>
       </c>
       <c r="DP17" t="n">
         <v>46.8</v>
@@ -9907,7 +9907,7 @@
         <v>-8.1</v>
       </c>
       <c r="DR17" t="n">
-        <v>38.5</v>
+        <v>35.29999999999998</v>
       </c>
       <c r="DS17" t="n">
         <v>281.5</v>
@@ -9916,7 +9916,7 @@
         <v>-0.2</v>
       </c>
       <c r="DU17" t="n">
-        <v>3.5</v>
+        <v>1.900000000000003</v>
       </c>
       <c r="DV17" t="n">
         <v>23.4</v>
@@ -9925,7 +9925,7 @@
         <v>2.2</v>
       </c>
       <c r="DX17" t="n">
-        <v>8.899999999999999</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="DY17" t="n">
         <v>52.4</v>
@@ -9934,7 +9934,7 @@
         <v>-2.1</v>
       </c>
       <c r="EA17" t="n">
-        <v>84.90000000000003</v>
+        <v>55.20000000000002</v>
       </c>
       <c r="EB17" t="n">
         <v>346.5</v>
@@ -10157,7 +10157,7 @@
         <v>-10</v>
       </c>
       <c r="W18" t="n">
-        <v>9.700000000000003</v>
+        <v>8.600000000000003</v>
       </c>
       <c r="X18" t="n">
         <v>73.59999999999999</v>
@@ -10166,7 +10166,7 @@
         <v>-0.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.800000000000011</v>
+        <v>4.400000000000002</v>
       </c>
       <c r="AA18" t="n">
         <v>135.5</v>
@@ -10175,7 +10175,7 @@
         <v>14.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>3.499999999999996</v>
+        <v>3.199999999999992</v>
       </c>
       <c r="AD18" t="n">
         <v>26.9</v>
@@ -10184,7 +10184,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.400000000000002</v>
+        <v>1.800000000000004</v>
       </c>
       <c r="AG18" t="n">
         <v>29.4</v>
@@ -10229,7 +10229,7 @@
         <v>4.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>73.70000000000005</v>
+        <v>72.50000000000011</v>
       </c>
       <c r="AV18" t="n">
         <v>394.5</v>
@@ -10274,7 +10274,7 @@
         <v>2.7</v>
       </c>
       <c r="BJ18" t="n">
-        <v>25.90000000000001</v>
+        <v>2.40000000000002</v>
       </c>
       <c r="BK18" t="n">
         <v>196.3</v>
@@ -10301,7 +10301,7 @@
         <v>-4.2</v>
       </c>
       <c r="BS18" t="n">
-        <v>9.799999999999997</v>
+        <v>9.300000000000006</v>
       </c>
       <c r="BT18" t="n">
         <v>65.40000000000001</v>
@@ -10328,7 +10328,7 @@
         <v>5.5</v>
       </c>
       <c r="CB18" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="CC18" t="n">
         <v>270</v>
@@ -10346,7 +10346,7 @@
         <v>1.9</v>
       </c>
       <c r="CH18" t="n">
-        <v>35.79999999999998</v>
+        <v>25.89999999999997</v>
       </c>
       <c r="CI18" t="n">
         <v>228.7</v>
@@ -10373,7 +10373,7 @@
         <v>2.9</v>
       </c>
       <c r="CQ18" t="n">
-        <v>7.599999999999985</v>
+        <v>2.799999999999981</v>
       </c>
       <c r="CR18" t="n">
         <v>59.9</v>
@@ -10427,7 +10427,7 @@
         <v>3</v>
       </c>
       <c r="DI18" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="DJ18" t="n">
         <v>9.1</v>
@@ -10445,7 +10445,7 @@
         <v>1.6</v>
       </c>
       <c r="DO18" t="n">
-        <v>6.800000000000004</v>
+        <v>5.300000000000004</v>
       </c>
       <c r="DP18" t="n">
         <v>54.9</v>
@@ -10641,7 +10641,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.09999999999997</v>
+        <v>11.49999999999995</v>
       </c>
       <c r="C19" t="n">
         <v>192.3</v>
@@ -10659,7 +10659,7 @@
         <v>29.6</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="I19" t="n">
         <v>7.1</v>
@@ -10686,7 +10686,7 @@
         <v>-5.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>621.5</v>
+        <v>560.4000000000005</v>
       </c>
       <c r="R19" t="n">
         <v>4883.6</v>
@@ -10713,7 +10713,7 @@
         <v>-1.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>14.39999999999998</v>
+        <v>8.599999999999969</v>
       </c>
       <c r="AA19" t="n">
         <v>150.6</v>
@@ -10731,7 +10731,7 @@
         <v>1.7</v>
       </c>
       <c r="AF19" t="n">
-        <v>3</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="AG19" t="n">
         <v>29.6</v>
@@ -10740,7 +10740,7 @@
         <v>10.9</v>
       </c>
       <c r="AI19" t="n">
-        <v>958.3999999999996</v>
+        <v>900.8999999999987</v>
       </c>
       <c r="AJ19" t="n">
         <v>7618.2</v>
@@ -10767,7 +10767,7 @@
         <v>-41.3</v>
       </c>
       <c r="AR19" t="n">
-        <v>8.099999999999994</v>
+        <v>4.299999999999997</v>
       </c>
       <c r="AS19" t="n">
         <v>63.3</v>
@@ -10794,7 +10794,7 @@
         <v>6.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>1.700000000000003</v>
+        <v>0.5000000000000071</v>
       </c>
       <c r="BB19" t="n">
         <v>42.8</v>
@@ -10803,7 +10803,7 @@
         <v>-2.3</v>
       </c>
       <c r="BD19" t="n">
-        <v>14.40000000000001</v>
+        <v>3.700000000000019</v>
       </c>
       <c r="BE19" t="n">
         <v>139.2</v>
@@ -10875,7 +10875,7 @@
         <v>6.2</v>
       </c>
       <c r="CB19" t="n">
-        <v>29.30000000000001</v>
+        <v>5.300000000000011</v>
       </c>
       <c r="CC19" t="n">
         <v>257.6</v>
@@ -10884,7 +10884,7 @@
         <v>-3.4</v>
       </c>
       <c r="CE19" t="n">
-        <v>7</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="CF19" t="n">
         <v>55.2</v>
@@ -10902,7 +10902,7 @@
         <v>-6.1</v>
       </c>
       <c r="CK19" t="n">
-        <v>4.399999999999991</v>
+        <v>2.69999999999997</v>
       </c>
       <c r="CL19" t="n">
         <v>136.2</v>
@@ -10920,7 +10920,7 @@
         <v>-0.8</v>
       </c>
       <c r="CQ19" t="n">
-        <v>8</v>
+        <v>0.4000000000000146</v>
       </c>
       <c r="CR19" t="n">
         <v>70.5</v>
@@ -10938,7 +10938,7 @@
         <v>10.9</v>
       </c>
       <c r="CW19" t="n">
-        <v>15.39999999999998</v>
+        <v>6.19999999999996</v>
       </c>
       <c r="CX19" t="n">
         <v>186.8</v>
@@ -10956,7 +10956,7 @@
         <v>-10.3</v>
       </c>
       <c r="DC19" t="n">
-        <v>6.099999999999994</v>
+        <v>5.5</v>
       </c>
       <c r="DD19" t="n">
         <v>52.4</v>
@@ -10965,7 +10965,7 @@
         <v>-11.2</v>
       </c>
       <c r="DF19" t="n">
-        <v>101.3000000000001</v>
+        <v>92.00000000000027</v>
       </c>
       <c r="DG19" t="n">
         <v>918.1</v>
@@ -11037,7 +11037,7 @@
         <v>-23.6</v>
       </c>
       <c r="ED19" t="n">
-        <v>12.3</v>
+        <v>11.60000000000001</v>
       </c>
       <c r="EE19" t="n">
         <v>112.2</v>
@@ -11197,7 +11197,7 @@
         <v>-1.8</v>
       </c>
       <c r="E20" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="F20" t="n">
         <v>27.9</v>
@@ -11242,7 +11242,7 @@
         <v>-5.6</v>
       </c>
       <c r="T20" t="n">
-        <v>84</v>
+        <v>80.89999999999998</v>
       </c>
       <c r="U20" t="n">
         <v>660.5</v>
@@ -11251,7 +11251,7 @@
         <v>-11.1</v>
       </c>
       <c r="W20" t="n">
-        <v>9.399999999999991</v>
+        <v>8.099999999999994</v>
       </c>
       <c r="X20" t="n">
         <v>94.90000000000001</v>
@@ -11296,7 +11296,7 @@
         <v>-1.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>3</v>
+        <v>1.099999999999998</v>
       </c>
       <c r="AM20" t="n">
         <v>26.8</v>
@@ -11332,7 +11332,7 @@
         <v>-7.9</v>
       </c>
       <c r="AX20" t="n">
-        <v>5.899999999999999</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="AY20" t="n">
         <v>56.6</v>
@@ -11341,7 +11341,7 @@
         <v>5.6</v>
       </c>
       <c r="BA20" t="n">
-        <v>4.900000000000006</v>
+        <v>3.200000000000003</v>
       </c>
       <c r="BB20" t="n">
         <v>48.7</v>
@@ -11359,7 +11359,7 @@
         <v>-7.1</v>
       </c>
       <c r="BG20" t="n">
-        <v>9.5</v>
+        <v>4.899999999999979</v>
       </c>
       <c r="BH20" t="n">
         <v>100.8</v>
@@ -11386,7 +11386,7 @@
         <v>89.3</v>
       </c>
       <c r="BP20" t="n">
-        <v>2.400000000000091</v>
+        <v>0.100000000000136</v>
       </c>
       <c r="BQ20" t="n">
         <v>705.4</v>
@@ -11404,7 +11404,7 @@
         <v>10.9</v>
       </c>
       <c r="BV20" t="n">
-        <v>211.1999999999998</v>
+        <v>183.9000000000001</v>
       </c>
       <c r="BW20" t="n">
         <v>2060.3</v>
@@ -11413,7 +11413,7 @@
         <v>6</v>
       </c>
       <c r="BY20" t="n">
-        <v>192.6000000000001</v>
+        <v>166.9000000000003</v>
       </c>
       <c r="BZ20" t="n">
         <v>1873.3</v>
@@ -11440,7 +11440,7 @@
         <v>-1.3</v>
       </c>
       <c r="CH20" t="n">
-        <v>34.79999999999995</v>
+        <v>33.1999999999999</v>
       </c>
       <c r="CI20" t="n">
         <v>297.3</v>
@@ -11449,7 +11449,7 @@
         <v>-5.9</v>
       </c>
       <c r="CK20" t="n">
-        <v>7.400000000000019</v>
+        <v>3.000000000000028</v>
       </c>
       <c r="CL20" t="n">
         <v>145.8</v>
@@ -11458,7 +11458,7 @@
         <v>54.1</v>
       </c>
       <c r="CN20" t="n">
-        <v>18.59999999999999</v>
+        <v>11.99999999999996</v>
       </c>
       <c r="CO20" t="n">
         <v>202.9</v>
@@ -11494,7 +11494,7 @@
         <v>0.9</v>
       </c>
       <c r="CZ20" t="n">
-        <v>18.90000000000001</v>
+        <v>16.70000000000003</v>
       </c>
       <c r="DA20" t="n">
         <v>151</v>
@@ -11521,7 +11521,7 @@
         <v>7.6</v>
       </c>
       <c r="DI20" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="DJ20" t="n">
         <v>13.3</v>
@@ -11530,7 +11530,7 @@
         <v>-2.2</v>
       </c>
       <c r="DL20" t="n">
-        <v>15.29999999999998</v>
+        <v>4.19999999999996</v>
       </c>
       <c r="DM20" t="n">
         <v>200.9</v>
@@ -11539,7 +11539,7 @@
         <v>-1.4</v>
       </c>
       <c r="DO20" t="n">
-        <v>5.700000000000003</v>
+        <v>2.400000000000017</v>
       </c>
       <c r="DP20" t="n">
         <v>61.4</v>
@@ -11548,7 +11548,7 @@
         <v>-15.1</v>
       </c>
       <c r="DR20" t="n">
-        <v>45.19999999999999</v>
+        <v>40.89999999999998</v>
       </c>
       <c r="DS20" t="n">
         <v>418.2</v>
@@ -11557,7 +11557,7 @@
         <v>0.3</v>
       </c>
       <c r="DU20" t="n">
-        <v>3.099999999999998</v>
+        <v>1.099999999999998</v>
       </c>
       <c r="DV20" t="n">
         <v>32.6</v>
@@ -11566,7 +11566,7 @@
         <v>-1.8</v>
       </c>
       <c r="DX20" t="n">
-        <v>2.499999999999996</v>
+        <v>0.399999999999995</v>
       </c>
       <c r="DY20" t="n">
         <v>73.3</v>
@@ -11735,7 +11735,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.29999999999996</v>
+        <v>3.699999999999937</v>
       </c>
       <c r="C21" t="n">
         <v>241.4</v>
@@ -11753,7 +11753,7 @@
         <v>45.7</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="I21" t="n">
         <v>8.800000000000001</v>
@@ -11762,7 +11762,7 @@
         <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L21" t="n">
         <v>0.1</v>
@@ -11771,7 +11771,7 @@
         <v>-50</v>
       </c>
       <c r="N21" t="n">
-        <v>29.70000000000005</v>
+        <v>29.60000000000003</v>
       </c>
       <c r="O21" t="n">
         <v>308.5</v>
@@ -11825,7 +11825,7 @@
         <v>4.9</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.499999999999996</v>
+        <v>0.5999999999999941</v>
       </c>
       <c r="AG21" t="n">
         <v>37.1</v>
@@ -11852,7 +11852,7 @@
         <v>2.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.1</v>
+        <v>13.9</v>
       </c>
       <c r="AP21" t="n">
         <v>-1.5</v>
@@ -11897,7 +11897,7 @@
         <v>-2.9</v>
       </c>
       <c r="BD21" t="n">
-        <v>3</v>
+        <v>1.900000000000009</v>
       </c>
       <c r="BE21" t="n">
         <v>173.7</v>
@@ -11915,7 +11915,7 @@
         <v>6.5</v>
       </c>
       <c r="BJ21" t="n">
-        <v>3.29999999999999</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="BK21" t="n">
         <v>291.4</v>
@@ -11933,7 +11933,7 @@
         <v>85.8</v>
       </c>
       <c r="BP21" t="n">
-        <v>55.70000000000005</v>
+        <v>53.29999999999996</v>
       </c>
       <c r="BQ21" t="n">
         <v>765.6</v>
@@ -11942,7 +11942,7 @@
         <v>-1</v>
       </c>
       <c r="BS21" t="n">
-        <v>8.599999999999994</v>
+        <v>5.900000000000006</v>
       </c>
       <c r="BT21" t="n">
         <v>94</v>
@@ -11978,7 +11978,7 @@
         <v>7.4</v>
       </c>
       <c r="CE21" t="n">
-        <v>3.800000000000018</v>
+        <v>1.800000000000025</v>
       </c>
       <c r="CF21" t="n">
         <v>63.6</v>
@@ -12050,7 +12050,7 @@
         <v>-10.9</v>
       </c>
       <c r="DC21" t="n">
-        <v>7.399999999999991</v>
+        <v>4.899999999999976</v>
       </c>
       <c r="DD21" t="n">
         <v>62.5</v>
@@ -12059,7 +12059,7 @@
         <v>-15.2</v>
       </c>
       <c r="DF21" t="n">
-        <v>91.70000000000005</v>
+        <v>81.00000000000024</v>
       </c>
       <c r="DG21" t="n">
         <v>1167</v>
@@ -12104,7 +12104,7 @@
         <v>-0.3</v>
       </c>
       <c r="DU21" t="n">
-        <v>4.599999999999994</v>
+        <v>1.499999999999996</v>
       </c>
       <c r="DV21" t="n">
         <v>40.2</v>
@@ -12113,7 +12113,7 @@
         <v>-1.2</v>
       </c>
       <c r="DX21" t="n">
-        <v>8.099999999999994</v>
+        <v>5.599999999999998</v>
       </c>
       <c r="DY21" t="n">
         <v>85.2</v>
@@ -12122,7 +12122,7 @@
         <v>-0.8</v>
       </c>
       <c r="EA21" t="n">
-        <v>47.70000000000005</v>
+        <v>46.00000000000001</v>
       </c>
       <c r="EB21" t="n">
         <v>575.1</v>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.90000000000003</v>
+        <v>16.60000000000007</v>
       </c>
       <c r="C22" t="n">
         <v>261.6</v>
@@ -12291,7 +12291,7 @@
         <v>1.9</v>
       </c>
       <c r="E22" t="n">
-        <v>4.900000000000002</v>
+        <v>1.400000000000002</v>
       </c>
       <c r="F22" t="n">
         <v>34</v>
@@ -12327,7 +12327,7 @@
         <v>-6</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.1999999999998</v>
+        <v>174.9999999999991</v>
       </c>
       <c r="R22" t="n">
         <v>6651.6</v>
@@ -12354,7 +12354,7 @@
         <v>2.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.899999999999977</v>
+        <v>2.899999999999975</v>
       </c>
       <c r="AA22" t="n">
         <v>207.1</v>
@@ -12363,7 +12363,7 @@
         <v>14.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.20000000000001</v>
+        <v>1.600000000000016</v>
       </c>
       <c r="AD22" t="n">
         <v>42.8</v>
@@ -12372,7 +12372,7 @@
         <v>6.2</v>
       </c>
       <c r="AF22" t="n">
-        <v>4</v>
+        <v>1.500000000000004</v>
       </c>
       <c r="AG22" t="n">
         <v>41.4</v>
@@ -12381,7 +12381,7 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>234.8000000000006</v>
+        <v>222.3000000000024</v>
       </c>
       <c r="AJ22" t="n">
         <v>10436</v>
@@ -12390,7 +12390,7 @@
         <v>-0.8</v>
       </c>
       <c r="AL22" t="n">
-        <v>3.799999999999997</v>
+        <v>1.899999999999995</v>
       </c>
       <c r="AM22" t="n">
         <v>34.9</v>
@@ -12408,7 +12408,7 @@
         <v>-100</v>
       </c>
       <c r="AR22" t="n">
-        <v>5.499999999999996</v>
+        <v>3.999999999999996</v>
       </c>
       <c r="AS22" t="n">
         <v>86.90000000000001</v>
@@ -12426,7 +12426,7 @@
         <v>-6.9</v>
       </c>
       <c r="AX22" t="n">
-        <v>1.200000000000017</v>
+        <v>0.5000000000000213</v>
       </c>
       <c r="AY22" t="n">
         <v>69.5</v>
@@ -12435,7 +12435,7 @@
         <v>5.1</v>
       </c>
       <c r="BA22" t="n">
-        <v>3.89999999999999</v>
+        <v>2.299999999999996</v>
       </c>
       <c r="BB22" t="n">
         <v>59.3</v>
@@ -12444,7 +12444,7 @@
         <v>-4.7</v>
       </c>
       <c r="BD22" t="n">
-        <v>8.200000000000021</v>
+        <v>5.200000000000021</v>
       </c>
       <c r="BE22" t="n">
         <v>190.9</v>
@@ -12462,7 +12462,7 @@
         <v>9.4</v>
       </c>
       <c r="BJ22" t="n">
-        <v>6.900000000000034</v>
+        <v>3.600000000000044</v>
       </c>
       <c r="BK22" t="n">
         <v>310.6</v>
@@ -12498,7 +12498,7 @@
         <v>7.4</v>
       </c>
       <c r="BV22" t="n">
-        <v>24.30000000000021</v>
+        <v>21.59999999999991</v>
       </c>
       <c r="BW22" t="n">
         <v>2502.7</v>
@@ -12507,7 +12507,7 @@
         <v>5.6</v>
       </c>
       <c r="BY22" t="n">
-        <v>18.2000000000003</v>
+        <v>14.7000000000005</v>
       </c>
       <c r="BZ22" t="n">
         <v>2276.3</v>
@@ -12516,7 +12516,7 @@
         <v>5.4</v>
       </c>
       <c r="CB22" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="CC22" t="n">
         <v>382</v>
@@ -12525,7 +12525,7 @@
         <v>6.4</v>
       </c>
       <c r="CE22" t="n">
-        <v>5.099999999999978</v>
+        <v>1.29999999999996</v>
       </c>
       <c r="CF22" t="n">
         <v>69.59999999999999</v>
@@ -12543,7 +12543,7 @@
         <v>-5.3</v>
       </c>
       <c r="CK22" t="n">
-        <v>103.4</v>
+        <v>102.8</v>
       </c>
       <c r="CL22" t="n">
         <v>184.2</v>
@@ -12552,7 +12552,7 @@
         <v>55.1</v>
       </c>
       <c r="CN22" t="n">
-        <v>11.50000000000003</v>
+        <v>8.00000000000003</v>
       </c>
       <c r="CO22" t="n">
         <v>244.7</v>
@@ -12561,7 +12561,7 @@
         <v>-0.8</v>
       </c>
       <c r="CQ22" t="n">
-        <v>5.499999999999989</v>
+        <v>3.199999999999978</v>
       </c>
       <c r="CR22" t="n">
         <v>96.40000000000001</v>
@@ -12570,7 +12570,7 @@
         <v>2.1</v>
       </c>
       <c r="CT22" t="n">
-        <v>60.80000000000001</v>
+        <v>59</v>
       </c>
       <c r="CU22" t="n">
         <v>295.8</v>
@@ -12579,7 +12579,7 @@
         <v>8.1</v>
       </c>
       <c r="CW22" t="n">
-        <v>13.50000000000005</v>
+        <v>4.700000000000088</v>
       </c>
       <c r="CX22" t="n">
         <v>241.3</v>
@@ -12615,7 +12615,7 @@
         <v>7.5</v>
       </c>
       <c r="DI22" t="n">
-        <v>0.7999999999999989</v>
+        <v>0.399999999999999</v>
       </c>
       <c r="DJ22" t="n">
         <v>16.2</v>
@@ -12624,7 +12624,7 @@
         <v>-4.7</v>
       </c>
       <c r="DL22" t="n">
-        <v>14.49999999999997</v>
+        <v>8.89999999999994</v>
       </c>
       <c r="DM22" t="n">
         <v>243.1</v>
@@ -12633,7 +12633,7 @@
         <v>1.3</v>
       </c>
       <c r="DO22" t="n">
-        <v>11.4</v>
+        <v>5.999999999999995</v>
       </c>
       <c r="DP22" t="n">
         <v>76.5</v>
@@ -12642,7 +12642,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="DR22" t="n">
-        <v>33.69999999999993</v>
+        <v>33.59999999999991</v>
       </c>
       <c r="DS22" t="n">
         <v>507.2</v>
@@ -12660,7 +12660,7 @@
         <v>-2.6</v>
       </c>
       <c r="DX22" t="n">
-        <v>8.900000000000006</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="DY22" t="n">
         <v>92.90000000000001</v>
@@ -12678,7 +12678,7 @@
         <v>-21.2</v>
       </c>
       <c r="ED22" t="n">
-        <v>9.799999999999983</v>
+        <v>7.499999999999989</v>
       </c>
       <c r="EE22" t="n">
         <v>148.1</v>
@@ -12847,7 +12847,7 @@
         <v>22.3</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.8999999999999981</v>
       </c>
       <c r="I23" t="n">
         <v>11</v>
@@ -12865,7 +12865,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>14.80000000000001</v>
+        <v>2.30000000000007</v>
       </c>
       <c r="O23" t="n">
         <v>374.4</v>
@@ -12874,7 +12874,7 @@
         <v>-7.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>480.8</v>
+        <v>275.6000000000003</v>
       </c>
       <c r="R23" t="n">
         <v>7308.4</v>
@@ -12892,7 +12892,7 @@
         <v>-10.8</v>
       </c>
       <c r="W23" t="n">
-        <v>8.5</v>
+        <v>3.800000000000011</v>
       </c>
       <c r="X23" t="n">
         <v>123.2</v>
@@ -12901,7 +12901,7 @@
         <v>-1</v>
       </c>
       <c r="Z23" t="n">
-        <v>14.50000000000001</v>
+        <v>7.600000000000033</v>
       </c>
       <c r="AA23" t="n">
         <v>231.1</v>
@@ -12910,7 +12910,7 @@
         <v>13.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>3.199999999999996</v>
+        <v>0.9999999999999862</v>
       </c>
       <c r="AD23" t="n">
         <v>48.5</v>
@@ -12928,7 +12928,7 @@
         <v>6.1</v>
       </c>
       <c r="AI23" t="n">
-        <v>753.7</v>
+        <v>518.8999999999994</v>
       </c>
       <c r="AJ23" t="n">
         <v>11443.1</v>
@@ -12946,7 +12946,7 @@
         <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>3.2</v>
+        <v>0.8000000000000003</v>
       </c>
       <c r="AP23" t="n">
         <v>0.6</v>
@@ -12964,7 +12964,7 @@
         <v>-3.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>45.79999999999995</v>
+        <v>42.09999999999989</v>
       </c>
       <c r="AV23" t="n">
         <v>687.2</v>
@@ -12973,7 +12973,7 @@
         <v>-6.4</v>
       </c>
       <c r="AX23" t="n">
-        <v>2.599999999999989</v>
+        <v>1.399999999999972</v>
       </c>
       <c r="AY23" t="n">
         <v>75.7</v>
@@ -12991,7 +12991,7 @@
         <v>-6.9</v>
       </c>
       <c r="BD23" t="n">
-        <v>14.09999999999998</v>
+        <v>5.899999999999959</v>
       </c>
       <c r="BE23" t="n">
         <v>213.6</v>
@@ -13009,7 +13009,7 @@
         <v>6.6</v>
       </c>
       <c r="BJ23" t="n">
-        <v>30.79999999999997</v>
+        <v>23.89999999999993</v>
       </c>
       <c r="BK23" t="n">
         <v>331</v>
@@ -13018,7 +13018,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BM23" t="n">
-        <v>45.9</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="BN23" t="n">
         <v>-54.1</v>
@@ -13027,7 +13027,7 @@
         <v>128.3</v>
       </c>
       <c r="BP23" t="n">
-        <v>42.20000000000007</v>
+        <v>25.20000000000019</v>
       </c>
       <c r="BQ23" t="n">
         <v>901</v>
@@ -13036,7 +13036,7 @@
         <v>-0.1</v>
       </c>
       <c r="BS23" t="n">
-        <v>5.699999999999999</v>
+        <v>2.799999999999993</v>
       </c>
       <c r="BT23" t="n">
         <v>115.1</v>
@@ -13045,7 +13045,7 @@
         <v>7.5</v>
       </c>
       <c r="BV23" t="n">
-        <v>184.7999999999997</v>
+        <v>160.4999999999995</v>
       </c>
       <c r="BW23" t="n">
         <v>2752.7</v>
@@ -13054,7 +13054,7 @@
         <v>5.6</v>
       </c>
       <c r="BY23" t="n">
-        <v>176.0999999999998</v>
+        <v>157.8999999999995</v>
       </c>
       <c r="BZ23" t="n">
         <v>2503.9</v>
@@ -13063,7 +13063,7 @@
         <v>5.4</v>
       </c>
       <c r="CB23" t="n">
-        <v>36.80000000000001</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="CC23" t="n">
         <v>433.8</v>
@@ -13081,7 +13081,7 @@
         <v>-6.8</v>
       </c>
       <c r="CH23" t="n">
-        <v>40.19999999999997</v>
+        <v>24.09999999999995</v>
       </c>
       <c r="CI23" t="n">
         <v>389.4</v>
@@ -13099,7 +13099,7 @@
         <v>67.3</v>
       </c>
       <c r="CN23" t="n">
-        <v>13.39999999999998</v>
+        <v>1.899999999999951</v>
       </c>
       <c r="CO23" t="n">
         <v>272.7</v>
@@ -13126,7 +13126,7 @@
         <v>-8.9</v>
       </c>
       <c r="CW23" t="n">
-        <v>21.49999999999997</v>
+        <v>7.999999999999922</v>
       </c>
       <c r="CX23" t="n">
         <v>269.5</v>
@@ -13135,7 +13135,7 @@
         <v>0.1</v>
       </c>
       <c r="CZ23" t="n">
-        <v>9.300000000000011</v>
+        <v>5.800000000000011</v>
       </c>
       <c r="DA23" t="n">
         <v>198.2</v>
@@ -13144,7 +13144,7 @@
         <v>-12.4</v>
       </c>
       <c r="DC23" t="n">
-        <v>11.8</v>
+        <v>9.099999999999998</v>
       </c>
       <c r="DD23" t="n">
         <v>73.09999999999999</v>
@@ -13153,7 +13153,7 @@
         <v>-12.8</v>
       </c>
       <c r="DF23" t="n">
-        <v>88.20000000000005</v>
+        <v>83.10000000000014</v>
       </c>
       <c r="DG23" t="n">
         <v>1382.1</v>
@@ -13162,7 +13162,7 @@
         <v>7.2</v>
       </c>
       <c r="DI23" t="n">
-        <v>1.000000000000001</v>
+        <v>0.2000000000000022</v>
       </c>
       <c r="DJ23" t="n">
         <v>18.2</v>
@@ -13171,7 +13171,7 @@
         <v>-7.6</v>
       </c>
       <c r="DL23" t="n">
-        <v>14.70000000000002</v>
+        <v>0.2000000000000508</v>
       </c>
       <c r="DM23" t="n">
         <v>272.4</v>
@@ -13207,7 +13207,7 @@
         <v>-6.6</v>
       </c>
       <c r="DX23" t="n">
-        <v>16</v>
+        <v>7.099999999999994</v>
       </c>
       <c r="DY23" t="n">
         <v>108.6</v>
@@ -13216,7 +13216,7 @@
         <v>-2.2</v>
       </c>
       <c r="EA23" t="n">
-        <v>74.40000000000002</v>
+        <v>45.50000000000004</v>
       </c>
       <c r="EB23" t="n">
         <v>660.8</v>
@@ -13225,7 +13225,7 @@
         <v>-19</v>
       </c>
       <c r="ED23" t="n">
-        <v>12.70000000000002</v>
+        <v>2.900000000000038</v>
       </c>
       <c r="EE23" t="n">
         <v>162.3</v>
@@ -13376,7 +13376,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29.7</v>
+        <v>10.20000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>41.5</v>
@@ -13394,7 +13394,7 @@
         <v>-61.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="I24" t="n">
         <v>1.6</v>
@@ -13412,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>33.2</v>
+        <v>18.39999999999999</v>
       </c>
       <c r="O24" t="n">
         <v>50.4</v>
@@ -13421,7 +13421,7 @@
         <v>-11.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>642.7</v>
+        <v>161.9</v>
       </c>
       <c r="R24" t="n">
         <v>1026</v>
@@ -13430,7 +13430,7 @@
         <v>-19.8</v>
       </c>
       <c r="T24" t="n">
-        <v>82.5</v>
+        <v>26.69999999999999</v>
       </c>
       <c r="U24" t="n">
         <v>130.4</v>
@@ -13439,7 +13439,7 @@
         <v>-4</v>
       </c>
       <c r="W24" t="n">
-        <v>11.1</v>
+        <v>2.6</v>
       </c>
       <c r="X24" t="n">
         <v>18.7</v>
@@ -13448,7 +13448,7 @@
         <v>-11</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.59999999999999</v>
+        <v>3.09999999999998</v>
       </c>
       <c r="AA24" t="n">
         <v>29.7</v>
@@ -13457,7 +13457,7 @@
         <v>-21.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>3.4</v>
+        <v>0.2000000000000037</v>
       </c>
       <c r="AD24" t="n">
         <v>6.6</v>
@@ -13466,7 +13466,7 @@
         <v>-26.7</v>
       </c>
       <c r="AF24" t="n">
-        <v>4.699999999999999</v>
+        <v>2.099999999999998</v>
       </c>
       <c r="AG24" t="n">
         <v>6.8</v>
@@ -13475,7 +13475,7 @@
         <v>-38.2</v>
       </c>
       <c r="AI24" t="n">
-        <v>1023.2</v>
+        <v>269.5</v>
       </c>
       <c r="AJ24" t="n">
         <v>1675</v>
@@ -13484,7 +13484,7 @@
         <v>-11.2</v>
       </c>
       <c r="AL24" t="n">
-        <v>3.299999999999999</v>
+        <v>2.199999999999996</v>
       </c>
       <c r="AM24" t="n">
         <v>4.7</v>
@@ -13502,7 +13502,7 @@
         <v>-90.5</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="AS24" t="n">
         <v>14.1</v>
@@ -13511,7 +13511,7 @@
         <v>-23</v>
       </c>
       <c r="AU24" t="n">
-        <v>63.5</v>
+        <v>17.70000000000005</v>
       </c>
       <c r="AV24" t="n">
         <v>91.2</v>
@@ -13520,7 +13520,7 @@
         <v>-7.4</v>
       </c>
       <c r="AX24" t="n">
-        <v>6.6</v>
+        <v>4.000000000000011</v>
       </c>
       <c r="AY24" t="n">
         <v>10.1</v>
@@ -13529,7 +13529,7 @@
         <v>-2.9</v>
       </c>
       <c r="BA24" t="n">
-        <v>4.700000000000001</v>
+        <v>3.19999999999999</v>
       </c>
       <c r="BB24" t="n">
         <v>8.300000000000001</v>
@@ -13538,7 +13538,7 @@
         <v>-30.3</v>
       </c>
       <c r="BD24" t="n">
-        <v>18.7</v>
+        <v>4.600000000000019</v>
       </c>
       <c r="BE24" t="n">
         <v>30.4</v>
@@ -13574,7 +13574,7 @@
         <v>13.3</v>
       </c>
       <c r="BP24" t="n">
-        <v>77.29999999999998</v>
+        <v>35.09999999999992</v>
       </c>
       <c r="BQ24" t="n">
         <v>111.9</v>
@@ -13583,7 +13583,7 @@
         <v>-2.6</v>
       </c>
       <c r="BS24" t="n">
-        <v>11.2</v>
+        <v>5.5</v>
       </c>
       <c r="BT24" t="n">
         <v>19</v>
@@ -13592,7 +13592,7 @@
         <v>10.5</v>
       </c>
       <c r="BV24" t="n">
-        <v>258.6</v>
+        <v>73.80000000000032</v>
       </c>
       <c r="BW24" t="n">
         <v>461</v>
@@ -13601,7 +13601,7 @@
         <v>9</v>
       </c>
       <c r="BY24" t="n">
-        <v>231.8000000000001</v>
+        <v>55.7000000000003</v>
       </c>
       <c r="BZ24" t="n">
         <v>421.2</v>
@@ -13619,7 +13619,7 @@
         <v>-47.2</v>
       </c>
       <c r="CE24" t="n">
-        <v>6.700000000000001</v>
+        <v>3.999999999999991</v>
       </c>
       <c r="CF24" t="n">
         <v>8.9</v>
@@ -13646,7 +13646,7 @@
         <v>30.9</v>
       </c>
       <c r="CN24" t="n">
-        <v>25.90000000000001</v>
+        <v>12.50000000000003</v>
       </c>
       <c r="CO24" t="n">
         <v>36.1</v>
@@ -13655,7 +13655,7 @@
         <v>-23.2</v>
       </c>
       <c r="CQ24" t="n">
-        <v>8.699999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="CR24" t="n">
         <v>14</v>
@@ -13664,7 +13664,7 @@
         <v>-28.2</v>
       </c>
       <c r="CT24" t="n">
-        <v>29.69999999999999</v>
+        <v>25.59999999999999</v>
       </c>
       <c r="CU24" t="n">
         <v>59.3</v>
@@ -13673,7 +13673,7 @@
         <v>-37.2</v>
       </c>
       <c r="CW24" t="n">
-        <v>23.1</v>
+        <v>1.60000000000003</v>
       </c>
       <c r="CX24" t="n">
         <v>35.5</v>
@@ -13682,7 +13682,7 @@
         <v>-37.1</v>
       </c>
       <c r="CZ24" t="n">
-        <v>17.2</v>
+        <v>7.899999999999988</v>
       </c>
       <c r="DA24" t="n">
         <v>28.7</v>
@@ -13700,7 +13700,7 @@
         <v>-17.2</v>
       </c>
       <c r="DF24" t="n">
-        <v>121.9</v>
+        <v>33.69999999999996</v>
       </c>
       <c r="DG24" t="n">
         <v>188.1</v>
@@ -13709,7 +13709,7 @@
         <v>1.7</v>
       </c>
       <c r="DI24" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999989</v>
       </c>
       <c r="DJ24" t="n">
         <v>2.1</v>
@@ -13718,7 +13718,7 @@
         <v>-43.2</v>
       </c>
       <c r="DL24" t="n">
-        <v>25.4</v>
+        <v>10.69999999999998</v>
       </c>
       <c r="DM24" t="n">
         <v>36.6</v>
@@ -13727,7 +13727,7 @@
         <v>-26.9</v>
       </c>
       <c r="DO24" t="n">
-        <v>10.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="DP24" t="n">
         <v>14.7</v>
@@ -13736,7 +13736,7 @@
         <v>-17.4</v>
       </c>
       <c r="DR24" t="n">
-        <v>51.59999999999999</v>
+        <v>39.09999999999992</v>
       </c>
       <c r="DS24" t="n">
         <v>71.3</v>
@@ -13745,7 +13745,7 @@
         <v>-22.1</v>
       </c>
       <c r="DU24" t="n">
-        <v>4.6</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="DV24" t="n">
         <v>6.1</v>
@@ -13772,7 +13772,7 @@
         <v>-1.4</v>
       </c>
       <c r="ED24" t="n">
-        <v>13.2</v>
+        <v>0.4999999999999787</v>
       </c>
       <c r="EE24" t="n">
         <v>23.4</v>
@@ -14040,7 +14040,7 @@
         <v>-2.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AP25" t="n">
         <v>0.3</v>
@@ -14094,7 +14094,7 @@
         <v>-21.3</v>
       </c>
       <c r="BG25" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="BH25" t="n">
         <v>40</v>
@@ -14479,7 +14479,7 @@
         <v>-26.3</v>
       </c>
       <c r="E26" t="n">
-        <v>14.8</v>
+        <v>11.7</v>
       </c>
       <c r="F26" t="n">
         <v>9.300000000000001</v>
@@ -14551,7 +14551,7 @@
         <v>-1.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.199999999999999</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="AD26" t="n">
         <v>14.2</v>
@@ -14623,7 +14623,7 @@
         <v>-0.4</v>
       </c>
       <c r="BA26" t="n">
-        <v>4.599999999999998</v>
+        <v>4.1</v>
       </c>
       <c r="BB26" t="n">
         <v>18.6</v>
@@ -14650,7 +14650,7 @@
         <v>22.4</v>
       </c>
       <c r="BJ26" t="n">
-        <v>23.20000000000003</v>
+        <v>22.60000000000004</v>
       </c>
       <c r="BK26" t="n">
         <v>82.7</v>
@@ -14704,7 +14704,7 @@
         <v>7.7</v>
       </c>
       <c r="CB26" t="n">
-        <v>134.1</v>
+        <v>101.5</v>
       </c>
       <c r="CC26" t="n">
         <v>109.7</v>
@@ -14749,7 +14749,7 @@
         <v>-14.9</v>
       </c>
       <c r="CQ26" t="n">
-        <v>6.600000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="CR26" t="n">
         <v>29.1</v>
@@ -14848,7 +14848,7 @@
         <v>-9</v>
       </c>
       <c r="DX26" t="n">
-        <v>7.699999999999996</v>
+        <v>6.099999999999994</v>
       </c>
       <c r="DY26" t="n">
         <v>30.3</v>
@@ -15017,7 +15017,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.30000000000001</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="C27" t="n">
         <v>103.5</v>
@@ -15071,7 +15071,7 @@
         <v>-9.9</v>
       </c>
       <c r="T27" t="n">
-        <v>67.5</v>
+        <v>61.30000000000001</v>
       </c>
       <c r="U27" t="n">
         <v>339.4</v>
@@ -15080,7 +15080,7 @@
         <v>-5.7</v>
       </c>
       <c r="W27" t="n">
-        <v>1.900000000000002</v>
+        <v>1.600000000000005</v>
       </c>
       <c r="X27" t="n">
         <v>50.4</v>
@@ -15134,7 +15134,7 @@
         <v>-3.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="AP27" t="n">
         <v>0.6</v>
@@ -15197,7 +15197,7 @@
         <v>15.4</v>
       </c>
       <c r="BJ27" t="n">
-        <v>29.69999999999999</v>
+        <v>6.499999999999957</v>
       </c>
       <c r="BK27" t="n">
         <v>123.2</v>
@@ -15224,7 +15224,7 @@
         <v>-6.7</v>
       </c>
       <c r="BS27" t="n">
-        <v>9.699999999999996</v>
+        <v>6.5</v>
       </c>
       <c r="BT27" t="n">
         <v>51.1</v>
@@ -15242,7 +15242,7 @@
         <v>7</v>
       </c>
       <c r="BY27" t="n">
-        <v>16.59999999999991</v>
+        <v>0.3999999999999204</v>
       </c>
       <c r="BZ27" t="n">
         <v>1112.3</v>
@@ -15260,7 +15260,7 @@
         <v>-26.3</v>
       </c>
       <c r="CE27" t="n">
-        <v>4.800000000000001</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="CF27" t="n">
         <v>26</v>
@@ -15278,7 +15278,7 @@
         <v>12.1</v>
       </c>
       <c r="CK27" t="n">
-        <v>8.599999999999994</v>
+        <v>7.099999999999977</v>
       </c>
       <c r="CL27" t="n">
         <v>83</v>
@@ -15305,7 +15305,7 @@
         <v>-17.4</v>
       </c>
       <c r="CT27" t="n">
-        <v>14.80000000000002</v>
+        <v>0.7000000000000295</v>
       </c>
       <c r="CU27" t="n">
         <v>134.3</v>
@@ -15323,7 +15323,7 @@
         <v>-21.1</v>
       </c>
       <c r="CZ27" t="n">
-        <v>17.2</v>
+        <v>14.2</v>
       </c>
       <c r="DA27" t="n">
         <v>74.5</v>
@@ -15332,7 +15332,7 @@
         <v>-10</v>
       </c>
       <c r="DC27" t="n">
-        <v>4.800000000000001</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="DD27" t="n">
         <v>28.4</v>
@@ -15350,7 +15350,7 @@
         <v>-4.7</v>
       </c>
       <c r="DI27" t="n">
-        <v>1.400000000000001</v>
+        <v>0.7000000000000008</v>
       </c>
       <c r="DJ27" t="n">
         <v>6.2</v>
@@ -15368,7 +15368,7 @@
         <v>-14.1</v>
       </c>
       <c r="DO27" t="n">
-        <v>6.200000000000003</v>
+        <v>4.300000000000004</v>
       </c>
       <c r="DP27" t="n">
         <v>35.1</v>
@@ -15386,7 +15386,7 @@
         <v>-7.6</v>
       </c>
       <c r="DU27" t="n">
-        <v>1.700000000000003</v>
+        <v>1.500000000000004</v>
       </c>
       <c r="DV27" t="n">
         <v>18.1</v>
@@ -15413,7 +15413,7 @@
         <v>-7.1</v>
       </c>
       <c r="ED27" t="n">
-        <v>13.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="EE27" t="n">
         <v>62.5</v>
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.90000000000001</v>
+        <v>5.599999999999998</v>
       </c>
       <c r="C28" t="n">
         <v>140.9</v>
@@ -15582,7 +15582,7 @@
         <v>-31.4</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="I28" t="n">
         <v>5</v>
@@ -15600,7 +15600,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>26</v>
+        <v>20.7</v>
       </c>
       <c r="O28" t="n">
         <v>174.3</v>
@@ -15609,7 +15609,7 @@
         <v>-1.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>579.9000000000001</v>
+        <v>437.6000000000004</v>
       </c>
       <c r="R28" t="n">
         <v>3324.7</v>
@@ -15627,7 +15627,7 @@
         <v>-5.4</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>0.09999999999999809</v>
       </c>
       <c r="X28" t="n">
         <v>60.8</v>
@@ -15645,7 +15645,7 @@
         <v>-2.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD28" t="n">
         <v>21.3</v>
@@ -15654,7 +15654,7 @@
         <v>-10.1</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.199999999999999</v>
+        <v>1.900000000000002</v>
       </c>
       <c r="AG28" t="n">
         <v>22.5</v>
@@ -15663,7 +15663,7 @@
         <v>-11.1</v>
       </c>
       <c r="AI28" t="n">
-        <v>915</v>
+        <v>751.4000000000003</v>
       </c>
       <c r="AJ28" t="n">
         <v>5411.2</v>
@@ -15672,7 +15672,7 @@
         <v>-5</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="AM28" t="n">
         <v>17.9</v>
@@ -15690,7 +15690,7 @@
         <v>-466.7</v>
       </c>
       <c r="AR28" t="n">
-        <v>7.700000000000003</v>
+        <v>3.400000000000006</v>
       </c>
       <c r="AS28" t="n">
         <v>42.9</v>
@@ -15699,7 +15699,7 @@
         <v>-13.2</v>
       </c>
       <c r="AU28" t="n">
-        <v>52.40000000000003</v>
+        <v>36.60000000000008</v>
       </c>
       <c r="AV28" t="n">
         <v>296</v>
@@ -15708,7 +15708,7 @@
         <v>-13.2</v>
       </c>
       <c r="AX28" t="n">
-        <v>6.100000000000001</v>
+        <v>4.200000000000003</v>
       </c>
       <c r="AY28" t="n">
         <v>34.6</v>
@@ -15717,7 +15717,7 @@
         <v>-0.9</v>
       </c>
       <c r="BA28" t="n">
-        <v>4.600000000000001</v>
+        <v>3.499999999999996</v>
       </c>
       <c r="BB28" t="n">
         <v>28.3</v>
@@ -15726,7 +15726,7 @@
         <v>-11.8</v>
       </c>
       <c r="BD28" t="n">
-        <v>16.69999999999999</v>
+        <v>13.6</v>
       </c>
       <c r="BE28" t="n">
         <v>99.40000000000001</v>
@@ -15735,7 +15735,7 @@
         <v>-10.4</v>
       </c>
       <c r="BG28" t="n">
-        <v>8.799999999999997</v>
+        <v>6.999999999999996</v>
       </c>
       <c r="BH28" t="n">
         <v>81.59999999999999</v>
@@ -15762,7 +15762,7 @@
         <v>64.2</v>
       </c>
       <c r="BP28" t="n">
-        <v>63.30000000000001</v>
+        <v>50.30000000000007</v>
       </c>
       <c r="BQ28" t="n">
         <v>373.7</v>
@@ -15780,7 +15780,7 @@
         <v>-0.5</v>
       </c>
       <c r="BV28" t="n">
-        <v>231.0999999999999</v>
+        <v>215.9999999999999</v>
       </c>
       <c r="BW28" t="n">
         <v>1486.2</v>
@@ -15789,7 +15789,7 @@
         <v>5.7</v>
       </c>
       <c r="BY28" t="n">
-        <v>212.5</v>
+        <v>195.9000000000001</v>
       </c>
       <c r="BZ28" t="n">
         <v>1344.1</v>
@@ -15807,7 +15807,7 @@
         <v>-19.6</v>
       </c>
       <c r="CE28" t="n">
-        <v>7.299999999999997</v>
+        <v>2.499999999999996</v>
       </c>
       <c r="CF28" t="n">
         <v>34.3</v>
@@ -15834,7 +15834,7 @@
         <v>-4.7</v>
       </c>
       <c r="CN28" t="n">
-        <v>22.09999999999999</v>
+        <v>15.69999999999997</v>
       </c>
       <c r="CO28" t="n">
         <v>124.3</v>
@@ -15852,7 +15852,7 @@
         <v>-14.9</v>
       </c>
       <c r="CT28" t="n">
-        <v>25.29999999999998</v>
+        <v>10.49999999999996</v>
       </c>
       <c r="CU28" t="n">
         <v>177</v>
@@ -15861,7 +15861,7 @@
         <v>-8</v>
       </c>
       <c r="CW28" t="n">
-        <v>20.09999999999999</v>
+        <v>8.699999999999982</v>
       </c>
       <c r="CX28" t="n">
         <v>116.6</v>
@@ -15888,7 +15888,7 @@
         <v>-8.6</v>
       </c>
       <c r="DF28" t="n">
-        <v>104</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="DG28" t="n">
         <v>600.2</v>
@@ -15897,7 +15897,7 @@
         <v>-5.3</v>
       </c>
       <c r="DI28" t="n">
-        <v>1.6</v>
+        <v>0.1999999999999991</v>
       </c>
       <c r="DJ28" t="n">
         <v>7.8</v>
@@ -15906,7 +15906,7 @@
         <v>-16.1</v>
       </c>
       <c r="DL28" t="n">
-        <v>19.29999999999998</v>
+        <v>8.399999999999979</v>
       </c>
       <c r="DM28" t="n">
         <v>124</v>
@@ -15915,7 +15915,7 @@
         <v>-12.3</v>
       </c>
       <c r="DO28" t="n">
-        <v>7.899999999999999</v>
+        <v>1.699999999999996</v>
       </c>
       <c r="DP28" t="n">
         <v>42.6</v>
@@ -15924,7 +15924,7 @@
         <v>-3.4</v>
       </c>
       <c r="DR28" t="n">
-        <v>47.30000000000001</v>
+        <v>34.30000000000006</v>
       </c>
       <c r="DS28" t="n">
         <v>262.8</v>
@@ -15933,7 +15933,7 @@
         <v>-5.4</v>
       </c>
       <c r="DU28" t="n">
-        <v>4.199999999999999</v>
+        <v>2.499999999999996</v>
       </c>
       <c r="DV28" t="n">
         <v>23.2</v>
@@ -15942,7 +15942,7 @@
         <v>-5.7</v>
       </c>
       <c r="DX28" t="n">
-        <v>7</v>
+        <v>4.099999999999996</v>
       </c>
       <c r="DY28" t="n">
         <v>48.3</v>
@@ -15951,7 +15951,7 @@
         <v>-3.2</v>
       </c>
       <c r="EA28" t="n">
-        <v>50.80000000000001</v>
+        <v>48.20000000000007</v>
       </c>
       <c r="EB28" t="n">
         <v>298.6</v>
@@ -16120,7 +16120,7 @@
         <v>-3.1</v>
       </c>
       <c r="E29" t="n">
-        <v>20.7</v>
+        <v>17.3</v>
       </c>
       <c r="F29" t="n">
         <v>20.6</v>
@@ -16174,7 +16174,7 @@
         <v>-6.1</v>
       </c>
       <c r="W29" t="n">
-        <v>10.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X29" t="n">
         <v>72.59999999999999</v>
@@ -16183,7 +16183,7 @@
         <v>-6</v>
       </c>
       <c r="Z29" t="n">
-        <v>14.60000000000001</v>
+        <v>12.80000000000003</v>
       </c>
       <c r="AA29" t="n">
         <v>123.7</v>
@@ -16219,7 +16219,7 @@
         <v>-3.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>3.800000000000001</v>
+        <v>3.200000000000002</v>
       </c>
       <c r="AM29" t="n">
         <v>22.2</v>
@@ -16291,7 +16291,7 @@
         <v>15.1</v>
       </c>
       <c r="BJ29" t="n">
-        <v>26.10000000000002</v>
+        <v>3.400000000000031</v>
       </c>
       <c r="BK29" t="n">
         <v>184</v>
@@ -16318,7 +16318,7 @@
         <v>-7.3</v>
       </c>
       <c r="BS29" t="n">
-        <v>2.699999999999996</v>
+        <v>2.599999999999988</v>
       </c>
       <c r="BT29" t="n">
         <v>68.7</v>
@@ -16345,7 +16345,7 @@
         <v>5.3</v>
       </c>
       <c r="CB29" t="n">
-        <v>190.5</v>
+        <v>154</v>
       </c>
       <c r="CC29" t="n">
         <v>206.4</v>
@@ -16363,7 +16363,7 @@
         <v>-6.2</v>
       </c>
       <c r="CH29" t="n">
-        <v>32.40000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="CI29" t="n">
         <v>238.5</v>
@@ -16390,7 +16390,7 @@
         <v>-5.8</v>
       </c>
       <c r="CQ29" t="n">
-        <v>5.000000000000007</v>
+        <v>4.400000000000013</v>
       </c>
       <c r="CR29" t="n">
         <v>52.5</v>
@@ -16444,7 +16444,7 @@
         <v>-5.8</v>
       </c>
       <c r="DI29" t="n">
-        <v>9.200000000000001</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="DJ29" t="n">
         <v>9.5</v>
@@ -16462,7 +16462,7 @@
         <v>-6.8</v>
       </c>
       <c r="DO29" t="n">
-        <v>43.5</v>
+        <v>35.6</v>
       </c>
       <c r="DP29" t="n">
         <v>50.1</v>
@@ -16658,7 +16658,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22.30000000000001</v>
+        <v>17.30000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>209</v>
@@ -16712,7 +16712,7 @@
         <v>-2.1</v>
       </c>
       <c r="T30" t="n">
-        <v>65.09999999999991</v>
+        <v>56.69999999999982</v>
       </c>
       <c r="U30" t="n">
         <v>526</v>
@@ -16748,7 +16748,7 @@
         <v>-0.7</v>
       </c>
       <c r="AF30" t="n">
-        <v>4</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="AG30" t="n">
         <v>34.2</v>
@@ -16784,7 +16784,7 @@
         <v>-276</v>
       </c>
       <c r="AR30" t="n">
-        <v>6.100000000000001</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="AS30" t="n">
         <v>64.90000000000001</v>
@@ -16865,7 +16865,7 @@
         <v>-6.9</v>
       </c>
       <c r="BS30" t="n">
-        <v>10</v>
+        <v>7.300000000000004</v>
       </c>
       <c r="BT30" t="n">
         <v>77.8</v>
@@ -16883,7 +16883,7 @@
         <v>4</v>
       </c>
       <c r="BY30" t="n">
-        <v>8.400000000000091</v>
+        <v>0.9000000000000909</v>
       </c>
       <c r="BZ30" t="n">
         <v>1778</v>
@@ -16919,7 +16919,7 @@
         <v>5.5</v>
       </c>
       <c r="CK30" t="n">
-        <v>9.299999999999983</v>
+        <v>5.799999999999983</v>
       </c>
       <c r="CL30" t="n">
         <v>116.6</v>
@@ -16964,7 +16964,7 @@
         <v>2</v>
       </c>
       <c r="CZ30" t="n">
-        <v>15.59999999999999</v>
+        <v>12.29999999999998</v>
       </c>
       <c r="DA30" t="n">
         <v>118.1</v>
@@ -16973,7 +16973,7 @@
         <v>-12.5</v>
       </c>
       <c r="DC30" t="n">
-        <v>3.300000000000004</v>
+        <v>2.700000000000002</v>
       </c>
       <c r="DD30" t="n">
         <v>41.8</v>
@@ -16982,7 +16982,7 @@
         <v>-17.1</v>
       </c>
       <c r="DF30" t="n">
-        <v>27.5000000000001</v>
+        <v>22.7000000000001</v>
       </c>
       <c r="DG30" t="n">
         <v>793.3</v>
@@ -17036,7 +17036,7 @@
         <v>-10.1</v>
       </c>
       <c r="DX30" t="n">
-        <v>8.399999999999991</v>
+        <v>5.899999999999984</v>
       </c>
       <c r="DY30" t="n">
         <v>68.5</v>
@@ -17045,7 +17045,7 @@
         <v>3.2</v>
       </c>
       <c r="EA30" t="n">
-        <v>56.70000000000005</v>
+        <v>47.60000000000009</v>
       </c>
       <c r="EB30" t="n">
         <v>385.1</v>
@@ -17054,7 +17054,7 @@
         <v>-13.7</v>
       </c>
       <c r="ED30" t="n">
-        <v>14.39999999999999</v>
+        <v>9.499999999999991</v>
       </c>
       <c r="EE30" t="n">
         <v>103.5</v>
@@ -17223,7 +17223,7 @@
         <v>29.1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2999999999999989</v>
+        <v>0.09999999999999867</v>
       </c>
       <c r="I31" t="n">
         <v>8.800000000000001</v>
@@ -17241,7 +17241,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>30.09999999999997</v>
+        <v>26.69999999999994</v>
       </c>
       <c r="O31" t="n">
         <v>237.5</v>
@@ -17268,7 +17268,7 @@
         <v>-6.2</v>
       </c>
       <c r="W31" t="n">
-        <v>11</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X31" t="n">
         <v>94.3</v>
@@ -17304,7 +17304,7 @@
         <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>942.8000000000011</v>
+        <v>806.0000000000018</v>
       </c>
       <c r="AJ31" t="n">
         <v>8370.299999999999</v>
@@ -17322,7 +17322,7 @@
         <v>0.3</v>
       </c>
       <c r="AO31" t="n">
-        <v>4.2</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="AP31" t="n">
         <v>6</v>
@@ -17331,7 +17331,7 @@
         <v>-330.8</v>
       </c>
       <c r="AR31" t="n">
-        <v>8.399999999999991</v>
+        <v>2.29999999999999</v>
       </c>
       <c r="AS31" t="n">
         <v>76.7</v>
@@ -17340,7 +17340,7 @@
         <v>10.8</v>
       </c>
       <c r="AU31" t="n">
-        <v>52.5</v>
+        <v>51.5</v>
       </c>
       <c r="AV31" t="n">
         <v>433.2</v>
@@ -17349,7 +17349,7 @@
         <v>-15.9</v>
       </c>
       <c r="AX31" t="n">
-        <v>6.699999999999996</v>
+        <v>5.499999999999993</v>
       </c>
       <c r="AY31" t="n">
         <v>48.5</v>
@@ -17358,7 +17358,7 @@
         <v>-10.5</v>
       </c>
       <c r="BA31" t="n">
-        <v>5.600000000000001</v>
+        <v>3.699999999999996</v>
       </c>
       <c r="BB31" t="n">
         <v>44.7</v>
@@ -17376,7 +17376,7 @@
         <v>7.7</v>
       </c>
       <c r="BG31" t="n">
-        <v>6.599999999999994</v>
+        <v>4.299999999999986</v>
       </c>
       <c r="BH31" t="n">
         <v>121.3</v>
@@ -17385,7 +17385,7 @@
         <v>10.4</v>
       </c>
       <c r="BJ31" t="n">
-        <v>25.40000000000004</v>
+        <v>14.30000000000005</v>
       </c>
       <c r="BK31" t="n">
         <v>214.1</v>
@@ -17403,7 +17403,7 @@
         <v>44.6</v>
       </c>
       <c r="BP31" t="n">
-        <v>58</v>
+        <v>19.90000000000012</v>
       </c>
       <c r="BQ31" t="n">
         <v>560.5</v>
@@ -17421,7 +17421,7 @@
         <v>-7.8</v>
       </c>
       <c r="BV31" t="n">
-        <v>224.4000000000001</v>
+        <v>216.4000000000003</v>
       </c>
       <c r="BW31" t="n">
         <v>2206.2</v>
@@ -17430,7 +17430,7 @@
         <v>3.2</v>
       </c>
       <c r="BY31" t="n">
-        <v>209.0999999999999</v>
+        <v>200.6999999999998</v>
       </c>
       <c r="BZ31" t="n">
         <v>1999</v>
@@ -17448,7 +17448,7 @@
         <v>18.8</v>
       </c>
       <c r="CE31" t="n">
-        <v>5.299999999999997</v>
+        <v>2.899999999999998</v>
       </c>
       <c r="CF31" t="n">
         <v>57.1</v>
@@ -17457,7 +17457,7 @@
         <v>0</v>
       </c>
       <c r="CH31" t="n">
-        <v>34.5</v>
+        <v>29.80000000000003</v>
       </c>
       <c r="CI31" t="n">
         <v>300.9</v>
@@ -17475,7 +17475,7 @@
         <v>-12.3</v>
       </c>
       <c r="CN31" t="n">
-        <v>21.79999999999998</v>
+        <v>15.29999999999995</v>
       </c>
       <c r="CO31" t="n">
         <v>200.3</v>
@@ -17520,7 +17520,7 @@
         <v>-12.2</v>
       </c>
       <c r="DC31" t="n">
-        <v>3.499999999999993</v>
+        <v>0.1999999999999891</v>
       </c>
       <c r="DD31" t="n">
         <v>46.1</v>
@@ -17529,7 +17529,7 @@
         <v>-14.2</v>
       </c>
       <c r="DF31" t="n">
-        <v>100.9</v>
+        <v>73.39999999999991</v>
       </c>
       <c r="DG31" t="n">
         <v>889.8</v>
@@ -17547,7 +17547,7 @@
         <v>-7</v>
       </c>
       <c r="DL31" t="n">
-        <v>23.09999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="DM31" t="n">
         <v>206.5</v>
@@ -17565,7 +17565,7 @@
         <v>18.8</v>
       </c>
       <c r="DR31" t="n">
-        <v>49.5</v>
+        <v>40.70000000000004</v>
       </c>
       <c r="DS31" t="n">
         <v>412.6</v>
@@ -17806,7 +17806,7 @@
         <v>0.2</v>
       </c>
       <c r="T32" t="n">
-        <v>71.5</v>
+        <v>56.59999999999991</v>
       </c>
       <c r="U32" t="n">
         <v>663.6</v>
@@ -17824,7 +17824,7 @@
         <v>-6.2</v>
       </c>
       <c r="Z32" t="n">
-        <v>19.79999999999998</v>
+        <v>18.29999999999995</v>
       </c>
       <c r="AA32" t="n">
         <v>198.2</v>
@@ -17833,7 +17833,7 @@
         <v>10.2</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.5999999999999943</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="AD32" t="n">
         <v>39.8</v>
@@ -17860,7 +17860,7 @@
         <v>-0.1</v>
       </c>
       <c r="AL32" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="AM32" t="n">
         <v>32.8</v>
@@ -17914,7 +17914,7 @@
         <v>-5.2</v>
       </c>
       <c r="BD32" t="n">
-        <v>17.80000000000001</v>
+        <v>16.09999999999999</v>
       </c>
       <c r="BE32" t="n">
         <v>190.5</v>
@@ -17923,7 +17923,7 @@
         <v>8.5</v>
       </c>
       <c r="BG32" t="n">
-        <v>7.400000000000006</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="BH32" t="n">
         <v>132.5</v>
@@ -18031,7 +18031,7 @@
         <v>3</v>
       </c>
       <c r="CQ32" t="n">
-        <v>2.799999999999994</v>
+        <v>2.499999999999997</v>
       </c>
       <c r="CR32" t="n">
         <v>84.8</v>
@@ -18040,7 +18040,7 @@
         <v>3.8</v>
       </c>
       <c r="CT32" t="n">
-        <v>15.80000000000001</v>
+        <v>9.200000000000012</v>
       </c>
       <c r="CU32" t="n">
         <v>405.7</v>
@@ -18058,7 +18058,7 @@
         <v>8</v>
       </c>
       <c r="CZ32" t="n">
-        <v>15.29999999999998</v>
+        <v>13.99999999999996</v>
       </c>
       <c r="DA32" t="n">
         <v>146.8</v>
@@ -18121,7 +18121,7 @@
         <v>-1.7</v>
       </c>
       <c r="DU32" t="n">
-        <v>4.299999999999997</v>
+        <v>4.200000000000003</v>
       </c>
       <c r="DV32" t="n">
         <v>39.7</v>
@@ -18130,7 +18130,7 @@
         <v>-4.8</v>
       </c>
       <c r="DX32" t="n">
-        <v>8.900000000000006</v>
+        <v>8</v>
       </c>
       <c r="DY32" t="n">
         <v>83.40000000000001</v>
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13.59999999999997</v>
+        <v>4.199999999999939</v>
       </c>
       <c r="C33" t="n">
         <v>297.1</v>
@@ -18308,7 +18308,7 @@
         <v>15.3</v>
       </c>
       <c r="E33" t="n">
-        <v>2.399999999999992</v>
+        <v>2.199999999999986</v>
       </c>
       <c r="F33" t="n">
         <v>50.9</v>
@@ -18317,7 +18317,7 @@
         <v>48.8</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2000000000000011</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="I33" t="n">
         <v>12</v>
@@ -18335,7 +18335,7 @@
         <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>3.699999999999992</v>
+        <v>2.199999999999942</v>
       </c>
       <c r="O33" t="n">
         <v>297</v>
@@ -18344,7 +18344,7 @@
         <v>-9.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79999999999927</v>
+        <v>34.19999999999891</v>
       </c>
       <c r="R33" t="n">
         <v>6663.6</v>
@@ -18380,7 +18380,7 @@
         <v>12.9</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.200000000000003</v>
+        <v>0.6000000000000087</v>
       </c>
       <c r="AD33" t="n">
         <v>46</v>
@@ -18398,7 +18398,7 @@
         <v>29.7</v>
       </c>
       <c r="AI33" t="n">
-        <v>46.29999999999939</v>
+        <v>26.70000000000085</v>
       </c>
       <c r="AJ33" t="n">
         <v>10420.9</v>
@@ -18425,7 +18425,7 @@
         <v>3000</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.9999999999999964</v>
+        <v>0.1999999999999851</v>
       </c>
       <c r="AS33" t="n">
         <v>99.8</v>
@@ -18434,7 +18434,7 @@
         <v>15</v>
       </c>
       <c r="AU33" t="n">
-        <v>53</v>
+        <v>51.79999999999995</v>
       </c>
       <c r="AV33" t="n">
         <v>528.5</v>
@@ -18497,7 +18497,7 @@
         <v>47.5</v>
       </c>
       <c r="BP33" t="n">
-        <v>49.29999999999995</v>
+        <v>40.0999999999999</v>
       </c>
       <c r="BQ33" t="n">
         <v>673.5</v>
@@ -18506,7 +18506,7 @@
         <v>-11</v>
       </c>
       <c r="BS33" t="n">
-        <v>3.69999999999999</v>
+        <v>2.899999999999993</v>
       </c>
       <c r="BT33" t="n">
         <v>103</v>
@@ -18515,7 +18515,7 @@
         <v>-7.5</v>
       </c>
       <c r="BV33" t="n">
-        <v>37.40000000000009</v>
+        <v>31.30000000000018</v>
       </c>
       <c r="BW33" t="n">
         <v>2678.9</v>
@@ -18542,7 +18542,7 @@
         <v>28.3</v>
       </c>
       <c r="CE33" t="n">
-        <v>0.8999999999999835</v>
+        <v>0.1999999999999735</v>
       </c>
       <c r="CF33" t="n">
         <v>66.90000000000001</v>
@@ -18560,7 +18560,7 @@
         <v>0.9</v>
       </c>
       <c r="CK33" t="n">
-        <v>7.699999999999989</v>
+        <v>5.700000000000021</v>
       </c>
       <c r="CL33" t="n">
         <v>150.5</v>
@@ -18569,7 +18569,7 @@
         <v>-15.2</v>
       </c>
       <c r="CN33" t="n">
-        <v>6.199999999999992</v>
+        <v>5.399999999999952</v>
       </c>
       <c r="CO33" t="n">
         <v>253.1</v>
@@ -18578,7 +18578,7 @@
         <v>4.7</v>
       </c>
       <c r="CQ33" t="n">
-        <v>9.799999999999997</v>
+        <v>7.000000000000004</v>
       </c>
       <c r="CR33" t="n">
         <v>97.5</v>
@@ -18596,7 +18596,7 @@
         <v>54.5</v>
       </c>
       <c r="CW33" t="n">
-        <v>3.999999999999972</v>
+        <v>3.499999999999972</v>
       </c>
       <c r="CX33" t="n">
         <v>262.7</v>
@@ -18614,7 +18614,7 @@
         <v>-12.1</v>
       </c>
       <c r="DC33" t="n">
-        <v>2.100000000000009</v>
+        <v>1.300000000000012</v>
       </c>
       <c r="DD33" t="n">
         <v>60.5</v>
@@ -18623,7 +18623,7 @@
         <v>-11.2</v>
       </c>
       <c r="DF33" t="n">
-        <v>83.90000000000009</v>
+        <v>73.0000000000001</v>
       </c>
       <c r="DG33" t="n">
         <v>1078.4</v>
@@ -18641,7 +18641,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="DL33" t="n">
-        <v>8.200000000000024</v>
+        <v>6.100000000000026</v>
       </c>
       <c r="DM33" t="n">
         <v>267.6</v>
@@ -18659,7 +18659,7 @@
         <v>23</v>
       </c>
       <c r="DR33" t="n">
-        <v>7.00000000000005</v>
+        <v>4.400000000000077</v>
       </c>
       <c r="DS33" t="n">
         <v>520.6</v>
@@ -18686,7 +18686,7 @@
         <v>-1.6</v>
       </c>
       <c r="EA33" t="n">
-        <v>39.89999999999998</v>
+        <v>38.5999999999999</v>
       </c>
       <c r="EB33" t="n">
         <v>505.6</v>
@@ -18695,7 +18695,7 @@
         <v>-15.6</v>
       </c>
       <c r="ED33" t="n">
-        <v>1.099999999999991</v>
+        <v>0.3999999999999917</v>
       </c>
       <c r="EE33" t="n">
         <v>141.4</v>
@@ -18855,7 +18855,7 @@
         <v>12.8</v>
       </c>
       <c r="E34" t="n">
-        <v>4.7</v>
+        <v>2.300000000000008</v>
       </c>
       <c r="F34" t="n">
         <v>61</v>
@@ -18864,7 +18864,7 @@
         <v>51</v>
       </c>
       <c r="H34" t="n">
-        <v>0.399999999999999</v>
+        <v>0.1999999999999979</v>
       </c>
       <c r="I34" t="n">
         <v>13.8</v>
@@ -18882,7 +18882,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>14.09999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="O34" t="n">
         <v>342.2</v>
@@ -18891,7 +18891,7 @@
         <v>-5.9</v>
       </c>
       <c r="Q34" t="n">
-        <v>348.9000000000003</v>
+        <v>312.100000000001</v>
       </c>
       <c r="R34" t="n">
         <v>7426.2</v>
@@ -18900,7 +18900,7 @@
         <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>49.2</v>
+        <v>43.7</v>
       </c>
       <c r="U34" t="n">
         <v>821.3</v>
@@ -18909,7 +18909,7 @@
         <v>-4.9</v>
       </c>
       <c r="W34" t="n">
-        <v>9.200000000000006</v>
+        <v>5.000000000000018</v>
       </c>
       <c r="X34" t="n">
         <v>115</v>
@@ -18918,7 +18918,7 @@
         <v>-8.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.300000000000001</v>
+        <v>4.09999999999998</v>
       </c>
       <c r="AA34" t="n">
         <v>250.2</v>
@@ -18945,7 +18945,7 @@
         <v>30.3</v>
       </c>
       <c r="AI34" t="n">
-        <v>659.800000000001</v>
+        <v>613.5000000000016</v>
       </c>
       <c r="AJ34" t="n">
         <v>11585.9</v>
@@ -18954,7 +18954,7 @@
         <v>2.1</v>
       </c>
       <c r="AL34" t="n">
-        <v>5</v>
+        <v>3.299999999999997</v>
       </c>
       <c r="AM34" t="n">
         <v>40.1</v>
@@ -18972,7 +18972,7 @@
         <v>785.7</v>
       </c>
       <c r="AR34" t="n">
-        <v>3</v>
+        <v>2.000000000000004</v>
       </c>
       <c r="AS34" t="n">
         <v>114.5</v>
@@ -18999,7 +18999,7 @@
         <v>-10.9</v>
       </c>
       <c r="BA34" t="n">
-        <v>8.199999999999999</v>
+        <v>4.900000000000009</v>
       </c>
       <c r="BB34" t="n">
         <v>63.1</v>
@@ -19008,7 +19008,7 @@
         <v>-4.5</v>
       </c>
       <c r="BD34" t="n">
-        <v>9.300000000000008</v>
+        <v>5.500000000000028</v>
       </c>
       <c r="BE34" t="n">
         <v>240.6</v>
@@ -19017,7 +19017,7 @@
         <v>12</v>
       </c>
       <c r="BG34" t="n">
-        <v>5.79999999999999</v>
+        <v>3.399999999999981</v>
       </c>
       <c r="BH34" t="n">
         <v>163</v>
@@ -19026,7 +19026,7 @@
         <v>11</v>
       </c>
       <c r="BJ34" t="n">
-        <v>18.29999999999997</v>
+        <v>0.3999999999999382</v>
       </c>
       <c r="BK34" t="n">
         <v>289.6</v>
@@ -19035,7 +19035,7 @@
         <v>-9.9</v>
       </c>
       <c r="BM34" t="n">
-        <v>106.4</v>
+        <v>160.4</v>
       </c>
       <c r="BN34" t="n">
         <v>-59.5</v>
@@ -19044,7 +19044,7 @@
         <v>10.2</v>
       </c>
       <c r="BP34" t="n">
-        <v>64.00000000000006</v>
+        <v>14.70000000000011</v>
       </c>
       <c r="BQ34" t="n">
         <v>764.8</v>
@@ -19053,7 +19053,7 @@
         <v>-5.1</v>
       </c>
       <c r="BS34" t="n">
-        <v>7.10000000000001</v>
+        <v>3.40000000000002</v>
       </c>
       <c r="BT34" t="n">
         <v>110.9</v>
@@ -19062,7 +19062,7 @@
         <v>-11</v>
       </c>
       <c r="BV34" t="n">
-        <v>204.2999999999999</v>
+        <v>166.8999999999998</v>
       </c>
       <c r="BW34" t="n">
         <v>2947.1</v>
@@ -19071,7 +19071,7 @@
         <v>3</v>
       </c>
       <c r="BY34" t="n">
-        <v>191.4999999999997</v>
+        <v>160.3999999999993</v>
       </c>
       <c r="BZ34" t="n">
         <v>2673.1</v>
@@ -19089,7 +19089,7 @@
         <v>27.1</v>
       </c>
       <c r="CE34" t="n">
-        <v>1.700000000000009</v>
+        <v>0.8000000000000256</v>
       </c>
       <c r="CF34" t="n">
         <v>75.7</v>
@@ -19098,7 +19098,7 @@
         <v>0.5</v>
       </c>
       <c r="CH34" t="n">
-        <v>35.20000000000002</v>
+        <v>29.80000000000004</v>
       </c>
       <c r="CI34" t="n">
         <v>379.9</v>
@@ -19107,7 +19107,7 @@
         <v>0</v>
       </c>
       <c r="CK34" t="n">
-        <v>28.60000000000001</v>
+        <v>20.90000000000002</v>
       </c>
       <c r="CL34" t="n">
         <v>166.4</v>
@@ -19116,7 +19116,7 @@
         <v>-10.2</v>
       </c>
       <c r="CN34" t="n">
-        <v>6.79999999999999</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="CO34" t="n">
         <v>285.6</v>
@@ -19134,7 +19134,7 @@
         <v>18.2</v>
       </c>
       <c r="CT34" t="n">
-        <v>18.49999999999999</v>
+        <v>15.19999999999998</v>
       </c>
       <c r="CU34" t="n">
         <v>539.2</v>
@@ -19143,7 +19143,7 @@
         <v>53.6</v>
       </c>
       <c r="CW34" t="n">
-        <v>6.500000000000028</v>
+        <v>2.500000000000056</v>
       </c>
       <c r="CX34" t="n">
         <v>297.3</v>
@@ -19152,7 +19152,7 @@
         <v>11.6</v>
       </c>
       <c r="CZ34" t="n">
-        <v>14.39999999999998</v>
+        <v>0.2999999999999616</v>
       </c>
       <c r="DA34" t="n">
         <v>176.7</v>
@@ -19161,7 +19161,7 @@
         <v>-10.2</v>
       </c>
       <c r="DC34" t="n">
-        <v>9.299999999999992</v>
+        <v>7.199999999999983</v>
       </c>
       <c r="DD34" t="n">
         <v>62.5</v>
@@ -19170,7 +19170,7 @@
         <v>-11</v>
       </c>
       <c r="DF34" t="n">
-        <v>106.5999999999999</v>
+        <v>22.6999999999998</v>
       </c>
       <c r="DG34" t="n">
         <v>1212.6</v>
@@ -19197,7 +19197,7 @@
         <v>8.5</v>
       </c>
       <c r="DO34" t="n">
-        <v>4.6</v>
+        <v>4.400000000000009</v>
       </c>
       <c r="DP34" t="n">
         <v>108.3</v>
@@ -19206,7 +19206,7 @@
         <v>24.2</v>
       </c>
       <c r="DR34" t="n">
-        <v>8.999999999999972</v>
+        <v>1.999999999999922</v>
       </c>
       <c r="DS34" t="n">
         <v>575.2</v>
@@ -19224,7 +19224,7 @@
         <v>-1.9</v>
       </c>
       <c r="DX34" t="n">
-        <v>14.3</v>
+        <v>7.900000000000006</v>
       </c>
       <c r="DY34" t="n">
         <v>100.6</v>
@@ -19233,7 +19233,7 @@
         <v>-7.1</v>
       </c>
       <c r="EA34" t="n">
-        <v>56.50000000000003</v>
+        <v>16.60000000000005</v>
       </c>
       <c r="EB34" t="n">
         <v>562.7</v>
@@ -19242,7 +19242,7 @@
         <v>-12</v>
       </c>
       <c r="ED34" t="n">
-        <v>10.20000000000001</v>
+        <v>9.100000000000019</v>
       </c>
       <c r="EE34" t="n">
         <v>153</v>
@@ -19393,7 +19393,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.90000000000001</v>
+        <v>23.8</v>
       </c>
       <c r="C35" t="n">
         <v>43.7</v>
@@ -19411,7 +19411,7 @@
         <v>83</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.4000000000000008</v>
       </c>
       <c r="I35" t="n">
         <v>2.1</v>
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>31.3</v>
+        <v>17.20000000000001</v>
       </c>
       <c r="O35" t="n">
         <v>54.9</v>
@@ -19438,7 +19438,7 @@
         <v>11.1</v>
       </c>
       <c r="Q35" t="n">
-        <v>580.4000000000001</v>
+        <v>231.4999999999998</v>
       </c>
       <c r="R35" t="n">
         <v>1088.3</v>
@@ -19447,7 +19447,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="T35" t="n">
-        <v>76.7</v>
+        <v>27.5</v>
       </c>
       <c r="U35" t="n">
         <v>125.7</v>
@@ -19456,7 +19456,7 @@
         <v>-0.4</v>
       </c>
       <c r="W35" t="n">
-        <v>11.5</v>
+        <v>2.299999999999994</v>
       </c>
       <c r="X35" t="n">
         <v>19</v>
@@ -19465,7 +19465,7 @@
         <v>3.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>19.9</v>
+        <v>12.6</v>
       </c>
       <c r="AA35" t="n">
         <v>36.6</v>
@@ -19474,7 +19474,7 @@
         <v>20.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD35" t="n">
         <v>7.8</v>
@@ -19483,7 +19483,7 @@
         <v>16.4</v>
       </c>
       <c r="AF35" t="n">
-        <v>3.200000000000001</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="AG35" t="n">
         <v>7.6</v>
@@ -19492,7 +19492,7 @@
         <v>15.2</v>
       </c>
       <c r="AI35" t="n">
-        <v>985.5</v>
+        <v>325.699999999999</v>
       </c>
       <c r="AJ35" t="n">
         <v>1762.3</v>
@@ -19519,7 +19519,7 @@
         <v>1200</v>
       </c>
       <c r="AR35" t="n">
-        <v>5.800000000000001</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="AS35" t="n">
         <v>14.8</v>
@@ -19528,7 +19528,7 @@
         <v>12.1</v>
       </c>
       <c r="AU35" t="n">
-        <v>51.80000000000001</v>
+        <v>16.80000000000001</v>
       </c>
       <c r="AV35" t="n">
         <v>90.59999999999999</v>
@@ -19537,7 +19537,7 @@
         <v>3</v>
       </c>
       <c r="AX35" t="n">
-        <v>6.500000000000002</v>
+        <v>2.499999999999996</v>
       </c>
       <c r="AY35" t="n">
         <v>9.1</v>
@@ -19555,7 +19555,7 @@
         <v>14.6</v>
       </c>
       <c r="BD35" t="n">
-        <v>16.6</v>
+        <v>7.299999999999994</v>
       </c>
       <c r="BE35" t="n">
         <v>34</v>
@@ -19564,7 +19564,7 @@
         <v>10</v>
       </c>
       <c r="BG35" t="n">
-        <v>20.7</v>
+        <v>14.90000000000001</v>
       </c>
       <c r="BH35" t="n">
         <v>25</v>
@@ -19573,7 +19573,7 @@
         <v>12.6</v>
       </c>
       <c r="BJ35" t="n">
-        <v>28.09999999999999</v>
+        <v>9.800000000000022</v>
       </c>
       <c r="BK35" t="n">
         <v>20.2</v>
@@ -19591,7 +19591,7 @@
         <v>156.3</v>
       </c>
       <c r="BP35" t="n">
-        <v>78.60000000000001</v>
+        <v>14.59999999999995</v>
       </c>
       <c r="BQ35" t="n">
         <v>122.2</v>
@@ -19600,7 +19600,7 @@
         <v>7.9</v>
       </c>
       <c r="BS35" t="n">
-        <v>12.6</v>
+        <v>5.499999999999989</v>
       </c>
       <c r="BT35" t="n">
         <v>18</v>
@@ -19609,7 +19609,7 @@
         <v>-11.3</v>
       </c>
       <c r="BV35" t="n">
-        <v>288.5000000000001</v>
+        <v>84.20000000000022</v>
       </c>
       <c r="BW35" t="n">
         <v>474.1</v>
@@ -19618,7 +19618,7 @@
         <v>0.4</v>
       </c>
       <c r="BY35" t="n">
-        <v>255.2</v>
+        <v>63.7000000000003</v>
       </c>
       <c r="BZ35" t="n">
         <v>431</v>
@@ -19627,7 +19627,7 @@
         <v>0.3</v>
       </c>
       <c r="CB35" t="n">
-        <v>24.3</v>
+        <v>22.49999999999999</v>
       </c>
       <c r="CC35" t="n">
         <v>72.2</v>
@@ -19636,7 +19636,7 @@
         <v>44.4</v>
       </c>
       <c r="CE35" t="n">
-        <v>5.9</v>
+        <v>4.199999999999991</v>
       </c>
       <c r="CF35" t="n">
         <v>10</v>
@@ -19645,7 +19645,7 @@
         <v>16.3</v>
       </c>
       <c r="CH35" t="n">
-        <v>38.7</v>
+        <v>3.499999999999986</v>
       </c>
       <c r="CI35" t="n">
         <v>63.4</v>
@@ -19663,7 +19663,7 @@
         <v>-9.4</v>
       </c>
       <c r="CN35" t="n">
-        <v>21.8</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="CO35" t="n">
         <v>39.8</v>
@@ -19672,7 +19672,7 @@
         <v>11.8</v>
       </c>
       <c r="CQ35" t="n">
-        <v>7.600000000000001</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="CR35" t="n">
         <v>15.3</v>
@@ -19681,7 +19681,7 @@
         <v>13.3</v>
       </c>
       <c r="CT35" t="n">
-        <v>26.7</v>
+        <v>8.20000000000001</v>
       </c>
       <c r="CU35" t="n">
         <v>73.5</v>
@@ -19690,7 +19690,7 @@
         <v>22.9</v>
       </c>
       <c r="CW35" t="n">
-        <v>18.1</v>
+        <v>11.59999999999997</v>
       </c>
       <c r="CX35" t="n">
         <v>42.4</v>
@@ -19699,7 +19699,7 @@
         <v>21.1</v>
       </c>
       <c r="CZ35" t="n">
-        <v>15.1</v>
+        <v>0.7000000000000188</v>
       </c>
       <c r="DA35" t="n">
         <v>28</v>
@@ -19717,7 +19717,7 @@
         <v>-5.3</v>
       </c>
       <c r="DF35" t="n">
-        <v>116.6</v>
+        <v>10.0000000000001</v>
       </c>
       <c r="DG35" t="n">
         <v>199.9</v>
@@ -19726,7 +19726,7 @@
         <v>4.9</v>
       </c>
       <c r="DI35" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="DJ35" t="n">
         <v>2</v>
@@ -19735,7 +19735,7 @@
         <v>-4.8</v>
       </c>
       <c r="DL35" t="n">
-        <v>21.40000000000001</v>
+        <v>17.00000000000002</v>
       </c>
       <c r="DM35" t="n">
         <v>48.1</v>
@@ -19744,7 +19744,7 @@
         <v>27.2</v>
       </c>
       <c r="DO35" t="n">
-        <v>7.999999999999998</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="DP35" t="n">
         <v>15.7</v>
@@ -19753,7 +19753,7 @@
         <v>5.4</v>
       </c>
       <c r="DR35" t="n">
-        <v>47</v>
+        <v>38.00000000000003</v>
       </c>
       <c r="DS35" t="n">
         <v>81.59999999999999</v>
@@ -19762,7 +19762,7 @@
         <v>19.8</v>
       </c>
       <c r="DU35" t="n">
-        <v>4.5</v>
+        <v>3.499999999999998</v>
       </c>
       <c r="DV35" t="n">
         <v>8.300000000000001</v>
@@ -19780,7 +19780,7 @@
         <v>13.3</v>
       </c>
       <c r="EA35" t="n">
-        <v>57.29999999999998</v>
+        <v>0.7999999999999545</v>
       </c>
       <c r="EB35" t="n">
         <v>92.09999999999999</v>
@@ -19789,7 +19789,7 @@
         <v>-4.5</v>
       </c>
       <c r="ED35" t="n">
-        <v>15.4</v>
+        <v>5.19999999999999</v>
       </c>
       <c r="EE35" t="n">
         <v>26.1</v>
@@ -19949,7 +19949,7 @@
         <v>-16.3</v>
       </c>
       <c r="E36" t="n">
-        <v>3.399999999999999</v>
+        <v>2.599999999999999</v>
       </c>
       <c r="F36" t="n">
         <v>9.199999999999999</v>
@@ -20057,7 +20057,7 @@
         <v>39.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP36" t="n">
         <v>0.5</v>
@@ -20255,7 +20255,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="DC36" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="DD36" t="n">
         <v>11.7</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11.69999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C37" t="n">
         <v>82.3</v>
@@ -20505,7 +20505,7 @@
         <v>57.7</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0999999999999992</v>
+        <v>0.09999999999999876</v>
       </c>
       <c r="I37" t="n">
         <v>4.6</v>
@@ -20523,7 +20523,7 @@
         <v>-100</v>
       </c>
       <c r="N37" t="n">
-        <v>29.2</v>
+        <v>27.5</v>
       </c>
       <c r="O37" t="n">
         <v>116</v>
@@ -20559,7 +20559,7 @@
         <v>2.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>18.3</v>
+        <v>16.4</v>
       </c>
       <c r="AA37" t="n">
         <v>70.7</v>
@@ -20577,7 +20577,7 @@
         <v>8.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>2.699999999999999</v>
+        <v>2.000000000000001</v>
       </c>
       <c r="AG37" t="n">
         <v>15</v>
@@ -20613,7 +20613,7 @@
         <v>128.6</v>
       </c>
       <c r="AR37" t="n">
-        <v>5.199999999999999</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="AS37" t="n">
         <v>28.4</v>
@@ -20667,7 +20667,7 @@
         <v>7.4</v>
       </c>
       <c r="BJ37" t="n">
-        <v>22.70000000000001</v>
+        <v>5.000000000000011</v>
       </c>
       <c r="BK37" t="n">
         <v>43.1</v>
@@ -20721,7 +20721,7 @@
         <v>0</v>
       </c>
       <c r="CB37" t="n">
-        <v>15.7</v>
+        <v>9.5</v>
       </c>
       <c r="CC37" t="n">
         <v>126.3</v>
@@ -20775,7 +20775,7 @@
         <v>3.5</v>
       </c>
       <c r="CT37" t="n">
-        <v>16.79999999999998</v>
+        <v>12.59999999999997</v>
       </c>
       <c r="CU37" t="n">
         <v>126.2</v>
@@ -20784,7 +20784,7 @@
         <v>7.5</v>
       </c>
       <c r="CW37" t="n">
-        <v>14.69999999999999</v>
+        <v>11.99999999999999</v>
       </c>
       <c r="CX37" t="n">
         <v>83.90000000000001</v>
@@ -20802,7 +20802,7 @@
         <v>-3.8</v>
       </c>
       <c r="DC37" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="DD37" t="n">
         <v>20.2</v>
@@ -20829,7 +20829,7 @@
         <v>-14</v>
       </c>
       <c r="DL37" t="n">
-        <v>19.59999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="DM37" t="n">
         <v>98.8</v>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25.10000000000002</v>
+        <v>13.40000000000003</v>
       </c>
       <c r="C38" t="n">
         <v>115</v>
@@ -21043,7 +21043,7 @@
         <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>4.1</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="F38" t="n">
         <v>22.1</v>
@@ -21052,7 +21052,7 @@
         <v>108.5</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1000000000000005</v>
+        <v>1.304512053934559e-15</v>
       </c>
       <c r="I38" t="n">
         <v>6.2</v>
@@ -21097,7 +21097,7 @@
         <v>0.5</v>
       </c>
       <c r="W38" t="n">
-        <v>9.599999999999994</v>
+        <v>9.299999999999995</v>
       </c>
       <c r="X38" t="n">
         <v>51.8</v>
@@ -21124,7 +21124,7 @@
         <v>13.6</v>
       </c>
       <c r="AF38" t="n">
-        <v>3.000000000000004</v>
+        <v>0.3000000000000052</v>
       </c>
       <c r="AG38" t="n">
         <v>21</v>
@@ -21142,7 +21142,7 @@
         <v>5.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>1.100000000000001</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AM38" t="n">
         <v>20.1</v>
@@ -21169,7 +21169,7 @@
         <v>21.9</v>
       </c>
       <c r="AU38" t="n">
-        <v>50.69999999999999</v>
+        <v>43.89999999999996</v>
       </c>
       <c r="AV38" t="n">
         <v>259.4</v>
@@ -21205,7 +21205,7 @@
         <v>14.4</v>
       </c>
       <c r="BG38" t="n">
-        <v>4.80000000000001</v>
+        <v>3.20000000000001</v>
       </c>
       <c r="BH38" t="n">
         <v>72</v>
@@ -21241,7 +21241,7 @@
         <v>7.3</v>
       </c>
       <c r="BS38" t="n">
-        <v>9.299999999999997</v>
+        <v>9.199999999999998</v>
       </c>
       <c r="BT38" t="n">
         <v>45.4</v>
@@ -21250,7 +21250,7 @@
         <v>-15.3</v>
       </c>
       <c r="BV38" t="n">
-        <v>12.99999999999983</v>
+        <v>1.89999999999975</v>
       </c>
       <c r="BW38" t="n">
         <v>1253.6</v>
@@ -21268,7 +21268,7 @@
         <v>0.2</v>
       </c>
       <c r="CB38" t="n">
-        <v>25.8</v>
+        <v>10.1</v>
       </c>
       <c r="CC38" t="n">
         <v>188.2</v>
@@ -21295,7 +21295,7 @@
         <v>-3.8</v>
       </c>
       <c r="CK38" t="n">
-        <v>6.799999999999997</v>
+        <v>6.299999999999997</v>
       </c>
       <c r="CL38" t="n">
         <v>73.59999999999999</v>
@@ -21322,7 +21322,7 @@
         <v>12</v>
       </c>
       <c r="CT38" t="n">
-        <v>25.20000000000002</v>
+        <v>8.400000000000041</v>
       </c>
       <c r="CU38" t="n">
         <v>196</v>
@@ -21340,7 +21340,7 @@
         <v>26.9</v>
       </c>
       <c r="CZ38" t="n">
-        <v>13.10000000000001</v>
+        <v>12.40000000000001</v>
       </c>
       <c r="DA38" t="n">
         <v>70.09999999999999</v>
@@ -21403,7 +21403,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="DU38" t="n">
-        <v>1.700000000000005</v>
+        <v>1.200000000000007</v>
       </c>
       <c r="DV38" t="n">
         <v>22.6</v>
@@ -21412,7 +21412,7 @@
         <v>16.5</v>
       </c>
       <c r="DX38" t="n">
-        <v>7.699999999999996</v>
+        <v>6.79999999999999</v>
       </c>
       <c r="DY38" t="n">
         <v>40.7</v>
@@ -21430,7 +21430,7 @@
         <v>-1.3</v>
       </c>
       <c r="ED38" t="n">
-        <v>3.200000000000001</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="EE38" t="n">
         <v>70.8</v>
@@ -21581,7 +21581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25.90000000000001</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="C39" t="n">
         <v>128.4</v>
@@ -21599,7 +21599,7 @@
         <v>54.5</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3000000000000009</v>
+        <v>0.2000000000000004</v>
       </c>
       <c r="I39" t="n">
         <v>7.3</v>
@@ -21617,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>18.5</v>
+        <v>16.29999999999999</v>
       </c>
       <c r="O39" t="n">
         <v>179.3</v>
@@ -21635,7 +21635,7 @@
         <v>3.5</v>
       </c>
       <c r="T39" t="n">
-        <v>62.29999999999995</v>
+        <v>57.29999999999995</v>
       </c>
       <c r="U39" t="n">
         <v>412.6</v>
@@ -21671,7 +21671,7 @@
         <v>10.2</v>
       </c>
       <c r="AF39" t="n">
-        <v>5.099999999999998</v>
+        <v>2.099999999999994</v>
       </c>
       <c r="AG39" t="n">
         <v>23.9</v>
@@ -21680,7 +21680,7 @@
         <v>8.1</v>
       </c>
       <c r="AI39" t="n">
-        <v>969.4000000000005</v>
+        <v>850.0000000000005</v>
       </c>
       <c r="AJ39" t="n">
         <v>5567.8</v>
@@ -21689,7 +21689,7 @@
         <v>2.8</v>
       </c>
       <c r="AL39" t="n">
-        <v>3.299999999999997</v>
+        <v>2.199999999999996</v>
       </c>
       <c r="AM39" t="n">
         <v>25.5</v>
@@ -21698,7 +21698,7 @@
         <v>37.1</v>
       </c>
       <c r="AO39" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP39" t="n">
         <v>2.7</v>
@@ -21725,7 +21725,7 @@
         <v>13.3</v>
       </c>
       <c r="AX39" t="n">
-        <v>6.399999999999999</v>
+        <v>4.799999999999997</v>
       </c>
       <c r="AY39" t="n">
         <v>33.4</v>
@@ -21734,7 +21734,7 @@
         <v>-3.2</v>
       </c>
       <c r="BA39" t="n">
-        <v>5.199999999999999</v>
+        <v>3.999999999999996</v>
       </c>
       <c r="BB39" t="n">
         <v>29.7</v>
@@ -21752,7 +21752,7 @@
         <v>5.7</v>
       </c>
       <c r="BG39" t="n">
-        <v>11.8</v>
+        <v>6.999999999999991</v>
       </c>
       <c r="BH39" t="n">
         <v>93.40000000000001</v>
@@ -21761,7 +21761,7 @@
         <v>5.7</v>
       </c>
       <c r="BJ39" t="n">
-        <v>24.30000000000004</v>
+        <v>7.50000000000006</v>
       </c>
       <c r="BK39" t="n">
         <v>63.4</v>
@@ -21779,7 +21779,7 @@
         <v>39.3</v>
       </c>
       <c r="BP39" t="n">
-        <v>60.69999999999999</v>
+        <v>44.59999999999997</v>
       </c>
       <c r="BQ39" t="n">
         <v>401.3</v>
@@ -21797,7 +21797,7 @@
         <v>-11.9</v>
       </c>
       <c r="BV39" t="n">
-        <v>230.2</v>
+        <v>217.2000000000002</v>
       </c>
       <c r="BW39" t="n">
         <v>1535.7</v>
@@ -21806,7 +21806,7 @@
         <v>0.7</v>
       </c>
       <c r="BY39" t="n">
-        <v>213.4000000000001</v>
+        <v>204.1000000000001</v>
       </c>
       <c r="BZ39" t="n">
         <v>1387</v>
@@ -21824,7 +21824,7 @@
         <v>26.7</v>
       </c>
       <c r="CE39" t="n">
-        <v>8.199999999999996</v>
+        <v>4.499999999999993</v>
       </c>
       <c r="CF39" t="n">
         <v>31.6</v>
@@ -21833,7 +21833,7 @@
         <v>-6</v>
       </c>
       <c r="CH39" t="n">
-        <v>32.59999999999999</v>
+        <v>31.70000000000002</v>
       </c>
       <c r="CI39" t="n">
         <v>206.7</v>
@@ -21851,7 +21851,7 @@
         <v>-7</v>
       </c>
       <c r="CN39" t="n">
-        <v>24.40000000000001</v>
+        <v>18.60000000000002</v>
       </c>
       <c r="CO39" t="n">
         <v>127.7</v>
@@ -21905,7 +21905,7 @@
         <v>-24.2</v>
       </c>
       <c r="DF39" t="n">
-        <v>105.4</v>
+        <v>92.89999999999999</v>
       </c>
       <c r="DG39" t="n">
         <v>638.3</v>
@@ -21923,7 +21923,7 @@
         <v>-14.9</v>
       </c>
       <c r="DL39" t="n">
-        <v>25.59999999999999</v>
+        <v>17.69999999999998</v>
       </c>
       <c r="DM39" t="n">
         <v>153.5</v>
@@ -21932,7 +21932,7 @@
         <v>19.5</v>
       </c>
       <c r="DO39" t="n">
-        <v>7.299999999999997</v>
+        <v>5.599999999999998</v>
       </c>
       <c r="DP39" t="n">
         <v>37.5</v>
@@ -21941,7 +21941,7 @@
         <v>-13.8</v>
       </c>
       <c r="DR39" t="n">
-        <v>47.60000000000002</v>
+        <v>35.90000000000006</v>
       </c>
       <c r="DS39" t="n">
         <v>271</v>
@@ -21950,7 +21950,7 @@
         <v>6.4</v>
       </c>
       <c r="DU39" t="n">
-        <v>3.5</v>
+        <v>1.799999999999995</v>
       </c>
       <c r="DV39" t="n">
         <v>29.9</v>
@@ -21977,7 +21977,7 @@
         <v>5.5</v>
       </c>
       <c r="ED39" t="n">
-        <v>3.800000000000008</v>
+        <v>0.6000000000000068</v>
       </c>
       <c r="EE39" t="n">
         <v>87.40000000000001</v>
@@ -22137,7 +22137,7 @@
         <v>-17.2</v>
       </c>
       <c r="E40" t="n">
-        <v>1.299999999999999</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="F40" t="n">
         <v>27.5</v>
@@ -22200,7 +22200,7 @@
         <v>8.1</v>
       </c>
       <c r="Z40" t="n">
-        <v>23.3</v>
+        <v>13.60000000000001</v>
       </c>
       <c r="AA40" t="n">
         <v>117.1</v>
@@ -22245,7 +22245,7 @@
         <v>33.8</v>
       </c>
       <c r="AO40" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="AP40" t="n">
         <v>3.3</v>
@@ -22254,7 +22254,7 @@
         <v>32</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.300000000000015</v>
+        <v>0.9000000000000234</v>
       </c>
       <c r="AS40" t="n">
         <v>50.6</v>
@@ -22362,7 +22362,7 @@
         <v>3.2</v>
       </c>
       <c r="CB40" t="n">
-        <v>13.89999999999998</v>
+        <v>11.59999999999997</v>
       </c>
       <c r="CC40" t="n">
         <v>233</v>
@@ -22407,7 +22407,7 @@
         <v>0.4</v>
       </c>
       <c r="CQ40" t="n">
-        <v>2.1</v>
+        <v>1.399999999999997</v>
       </c>
       <c r="CR40" t="n">
         <v>53.3</v>
@@ -22425,7 +22425,7 @@
         <v>1</v>
       </c>
       <c r="CW40" t="n">
-        <v>29.90000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="CX40" t="n">
         <v>143.9</v>
@@ -22434,7 +22434,7 @@
         <v>-0.7</v>
       </c>
       <c r="CZ40" t="n">
-        <v>13</v>
+        <v>10.00000000000002</v>
       </c>
       <c r="DA40" t="n">
         <v>97.7</v>
@@ -22461,7 +22461,7 @@
         <v>5</v>
       </c>
       <c r="DI40" t="n">
-        <v>1.600000000000001</v>
+        <v>1.300000000000002</v>
       </c>
       <c r="DJ40" t="n">
         <v>7.4</v>
@@ -22506,7 +22506,7 @@
         <v>15.8</v>
       </c>
       <c r="DX40" t="n">
-        <v>9.099999999999994</v>
+        <v>6.69999999999999</v>
       </c>
       <c r="DY40" t="n">
         <v>52.2</v>
@@ -22524,7 +22524,7 @@
         <v>6.4</v>
       </c>
       <c r="ED40" t="n">
-        <v>15.09999999999999</v>
+        <v>11.29999999999998</v>
       </c>
       <c r="EE40" t="n">
         <v>106.9</v>
@@ -22684,7 +22684,7 @@
         <v>-20.4</v>
       </c>
       <c r="E41" t="n">
-        <v>6.900000000000002</v>
+        <v>5.600000000000003</v>
       </c>
       <c r="F41" t="n">
         <v>31</v>
@@ -22693,7 +22693,7 @@
         <v>9.5</v>
       </c>
       <c r="H41" t="n">
-        <v>1.399999999999999</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="I41" t="n">
         <v>7.6</v>
@@ -22720,7 +22720,7 @@
         <v>4.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>626.1000000000004</v>
+        <v>604.5000000000005</v>
       </c>
       <c r="R41" t="n">
         <v>4441.6</v>
@@ -22729,7 +22729,7 @@
         <v>-2.8</v>
       </c>
       <c r="T41" t="n">
-        <v>8.899999999999864</v>
+        <v>8.899999999999743</v>
       </c>
       <c r="U41" t="n">
         <v>547.3</v>
@@ -22756,7 +22756,7 @@
         <v>-13</v>
       </c>
       <c r="AC41" t="n">
-        <v>4.899999999999999</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="AD41" t="n">
         <v>31.4</v>
@@ -22765,7 +22765,7 @@
         <v>1</v>
       </c>
       <c r="AF41" t="n">
-        <v>5.799999999999997</v>
+        <v>3.999999999999993</v>
       </c>
       <c r="AG41" t="n">
         <v>30.7</v>
@@ -22774,7 +22774,7 @@
         <v>-10</v>
       </c>
       <c r="AI41" t="n">
-        <v>988.9000000000005</v>
+        <v>949.600000000001</v>
       </c>
       <c r="AJ41" t="n">
         <v>7383.5</v>
@@ -22828,7 +22828,7 @@
         <v>-5.9</v>
       </c>
       <c r="BA41" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.3000000000000078</v>
       </c>
       <c r="BB41" t="n">
         <v>39.5</v>
@@ -22837,7 +22837,7 @@
         <v>3.1</v>
       </c>
       <c r="BD41" t="n">
-        <v>22.09999999999999</v>
+        <v>20.09999999999999</v>
       </c>
       <c r="BE41" t="n">
         <v>133.7</v>
@@ -22846,7 +22846,7 @@
         <v>-7.3</v>
       </c>
       <c r="BG41" t="n">
-        <v>5.100000000000009</v>
+        <v>4.600000000000009</v>
       </c>
       <c r="BH41" t="n">
         <v>121.3</v>
@@ -22882,7 +22882,7 @@
         <v>7.2</v>
       </c>
       <c r="BS41" t="n">
-        <v>8</v>
+        <v>3.70000000000001</v>
       </c>
       <c r="BT41" t="n">
         <v>70.59999999999999</v>
@@ -22891,7 +22891,7 @@
         <v>-8.5</v>
       </c>
       <c r="BV41" t="n">
-        <v>13.5</v>
+        <v>3.19999999999999</v>
       </c>
       <c r="BW41" t="n">
         <v>2072.7</v>
@@ -22900,7 +22900,7 @@
         <v>3.9</v>
       </c>
       <c r="BY41" t="n">
-        <v>9.799999999999898</v>
+        <v>4.399999999999977</v>
       </c>
       <c r="BZ41" t="n">
         <v>1880.8</v>
@@ -22909,7 +22909,7 @@
         <v>4.2</v>
       </c>
       <c r="CB41" t="n">
-        <v>46.80000000000001</v>
+        <v>32.90000000000003</v>
       </c>
       <c r="CC41" t="n">
         <v>263.9</v>
@@ -22936,7 +22936,7 @@
         <v>2.3</v>
       </c>
       <c r="CK41" t="n">
-        <v>6.299999999999997</v>
+        <v>5.699999999999996</v>
       </c>
       <c r="CL41" t="n">
         <v>113.7</v>
@@ -22945,7 +22945,7 @@
         <v>-2.7</v>
       </c>
       <c r="CN41" t="n">
-        <v>2.199999999999989</v>
+        <v>1.799999999999987</v>
       </c>
       <c r="CO41" t="n">
         <v>166.1</v>
@@ -22963,7 +22963,7 @@
         <v>-1.1</v>
       </c>
       <c r="CT41" t="n">
-        <v>44.39999999999998</v>
+        <v>43.29999999999995</v>
       </c>
       <c r="CU41" t="n">
         <v>268.2</v>
@@ -22990,7 +22990,7 @@
         <v>-4.9</v>
       </c>
       <c r="DC41" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="DD41" t="n">
         <v>35.6</v>
@@ -22999,7 +22999,7 @@
         <v>-13</v>
       </c>
       <c r="DF41" t="n">
-        <v>108.7</v>
+        <v>101.1</v>
       </c>
       <c r="DG41" t="n">
         <v>869.1</v>
@@ -23017,7 +23017,7 @@
         <v>-23.1</v>
       </c>
       <c r="DL41" t="n">
-        <v>28.70000000000002</v>
+        <v>24.20000000000002</v>
       </c>
       <c r="DM41" t="n">
         <v>199.8</v>
@@ -23044,7 +23044,7 @@
         <v>2.2</v>
       </c>
       <c r="DU41" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="DV41" t="n">
         <v>38.4</v>
@@ -23062,7 +23062,7 @@
         <v>-8.1</v>
       </c>
       <c r="EA41" t="n">
-        <v>40.80000000000001</v>
+        <v>31.10000000000009</v>
       </c>
       <c r="EB41" t="n">
         <v>385.8</v>
@@ -23222,7 +23222,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.30000000000001</v>
+        <v>29.09999999999997</v>
       </c>
       <c r="C42" t="n">
         <v>177.7</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>27.70000000000002</v>
+        <v>26.60000000000003</v>
       </c>
       <c r="O42" t="n">
         <v>257.4</v>
@@ -23276,7 +23276,7 @@
         <v>-4.6</v>
       </c>
       <c r="T42" t="n">
-        <v>67.80000000000007</v>
+        <v>58.9000000000002</v>
       </c>
       <c r="U42" t="n">
         <v>616.7</v>
@@ -23285,7 +23285,7 @@
         <v>2.8</v>
       </c>
       <c r="W42" t="n">
-        <v>9.299999999999997</v>
+        <v>7.600000000000012</v>
       </c>
       <c r="X42" t="n">
         <v>93.5</v>
@@ -23294,7 +23294,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Z42" t="n">
-        <v>23.09999999999999</v>
+        <v>22.09999999999998</v>
       </c>
       <c r="AA42" t="n">
         <v>138.5</v>
@@ -23330,7 +23330,7 @@
         <v>-1.1</v>
       </c>
       <c r="AL42" t="n">
-        <v>3.899999999999999</v>
+        <v>3.800000000000005</v>
       </c>
       <c r="AM42" t="n">
         <v>39.8</v>
@@ -23348,7 +23348,7 @@
         <v>-51.7</v>
       </c>
       <c r="AR42" t="n">
-        <v>10.5</v>
+        <v>10.40000000000001</v>
       </c>
       <c r="AS42" t="n">
         <v>64.59999999999999</v>
@@ -23357,7 +23357,7 @@
         <v>-7.3</v>
       </c>
       <c r="AU42" t="n">
-        <v>43.69999999999999</v>
+        <v>36.5</v>
       </c>
       <c r="AV42" t="n">
         <v>485.6</v>
@@ -23375,7 +23375,7 @@
         <v>-0.8</v>
       </c>
       <c r="BA42" t="n">
-        <v>5.700000000000003</v>
+        <v>5.299999999999997</v>
       </c>
       <c r="BB42" t="n">
         <v>44.9</v>
@@ -23393,7 +23393,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="BG42" t="n">
-        <v>11.90000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="BH42" t="n">
         <v>141.8</v>
@@ -23402,7 +23402,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BJ42" t="n">
-        <v>9.69999999999999</v>
+        <v>5.19999999999999</v>
       </c>
       <c r="BK42" t="n">
         <v>78.7</v>
@@ -23420,7 +23420,7 @@
         <v>38.7</v>
       </c>
       <c r="BP42" t="n">
-        <v>60.20000000000005</v>
+        <v>57.30000000000008</v>
       </c>
       <c r="BQ42" t="n">
         <v>629.8</v>
@@ -23438,7 +23438,7 @@
         <v>-7.3</v>
       </c>
       <c r="BV42" t="n">
-        <v>235.8000000000002</v>
+        <v>222.3000000000002</v>
       </c>
       <c r="BW42" t="n">
         <v>2350.7</v>
@@ -23447,7 +23447,7 @@
         <v>4.5</v>
       </c>
       <c r="BY42" t="n">
-        <v>214.8</v>
+        <v>205.0000000000001</v>
       </c>
       <c r="BZ42" t="n">
         <v>2129.9</v>
@@ -23474,7 +23474,7 @@
         <v>-16.6</v>
       </c>
       <c r="CH42" t="n">
-        <v>29.39999999999998</v>
+        <v>29</v>
       </c>
       <c r="CI42" t="n">
         <v>304.5</v>
@@ -23483,7 +23483,7 @@
         <v>1.2</v>
       </c>
       <c r="CK42" t="n">
-        <v>7.700000000000003</v>
+        <v>1.400000000000006</v>
       </c>
       <c r="CL42" t="n">
         <v>122.1</v>
@@ -23492,7 +23492,7 @@
         <v>-0.8</v>
       </c>
       <c r="CN42" t="n">
-        <v>26.39999999999998</v>
+        <v>24.19999999999999</v>
       </c>
       <c r="CO42" t="n">
         <v>187.5</v>
@@ -23501,7 +23501,7 @@
         <v>-5.2</v>
       </c>
       <c r="CQ42" t="n">
-        <v>0.1999999999999904</v>
+        <v>0.09999999999999076</v>
       </c>
       <c r="CR42" t="n">
         <v>68.8</v>
@@ -23519,7 +23519,7 @@
         <v>-14.2</v>
       </c>
       <c r="CW42" t="n">
-        <v>29.30000000000001</v>
+        <v>28.90000000000004</v>
       </c>
       <c r="CX42" t="n">
         <v>181.7</v>
@@ -23555,7 +23555,7 @@
         <v>4.8</v>
       </c>
       <c r="DI42" t="n">
-        <v>1.100000000000001</v>
+        <v>0.300000000000002</v>
       </c>
       <c r="DJ42" t="n">
         <v>10</v>
@@ -23573,7 +23573,7 @@
         <v>6.3</v>
       </c>
       <c r="DO42" t="n">
-        <v>11.7</v>
+        <v>10.7</v>
       </c>
       <c r="DP42" t="n">
         <v>52.9</v>
@@ -23582,7 +23582,7 @@
         <v>-28.3</v>
       </c>
       <c r="DR42" t="n">
-        <v>51.89999999999998</v>
+        <v>45.29999999999995</v>
       </c>
       <c r="DS42" t="n">
         <v>406</v>
@@ -23591,7 +23591,7 @@
         <v>0.7</v>
       </c>
       <c r="DU42" t="n">
-        <v>4.399999999999999</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="DV42" t="n">
         <v>44.9</v>
@@ -23618,7 +23618,7 @@
         <v>10.4</v>
       </c>
       <c r="ED42" t="n">
-        <v>0.5999999999999908</v>
+        <v>0.2999999999999723</v>
       </c>
       <c r="EE42" t="n">
         <v>134</v>
@@ -23787,7 +23787,7 @@
         <v>-3.3</v>
       </c>
       <c r="H43" t="n">
-        <v>1.699999999999999</v>
+        <v>1.399999999999997</v>
       </c>
       <c r="I43" t="n">
         <v>10</v>
@@ -23814,7 +23814,7 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.29999999999927</v>
+        <v>29.29999999999927</v>
       </c>
       <c r="R43" t="n">
         <v>5576.7</v>
@@ -23850,7 +23850,7 @@
         <v>-16.2</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.299999999999997</v>
+        <v>1.199999999999996</v>
       </c>
       <c r="AD43" t="n">
         <v>39.8</v>
@@ -23868,7 +23868,7 @@
         <v>-11.9</v>
       </c>
       <c r="AI43" t="n">
-        <v>69.49999999999977</v>
+        <v>59.60000000000105</v>
       </c>
       <c r="AJ43" t="n">
         <v>9284.799999999999</v>
@@ -23913,7 +23913,7 @@
         <v>13.7</v>
       </c>
       <c r="AX43" t="n">
-        <v>4.799999999999997</v>
+        <v>2.099999999999987</v>
       </c>
       <c r="AY43" t="n">
         <v>53.5</v>
@@ -23949,7 +23949,7 @@
         <v>9.6</v>
       </c>
       <c r="BJ43" t="n">
-        <v>14.70000000000002</v>
+        <v>5.00000000000003</v>
       </c>
       <c r="BK43" t="n">
         <v>88.40000000000001</v>
@@ -23976,7 +23976,7 @@
         <v>7.2</v>
       </c>
       <c r="BS43" t="n">
-        <v>8</v>
+        <v>6.799999999999997</v>
       </c>
       <c r="BT43" t="n">
         <v>87.7</v>
@@ -24012,7 +24012,7 @@
         <v>-5.6</v>
       </c>
       <c r="CE43" t="n">
-        <v>4.999999999999993</v>
+        <v>2.499999999999993</v>
       </c>
       <c r="CF43" t="n">
         <v>53.1</v>
@@ -24030,7 +24030,7 @@
         <v>-0.5</v>
       </c>
       <c r="CK43" t="n">
-        <v>12.70000000000002</v>
+        <v>5.000000000000018</v>
       </c>
       <c r="CL43" t="n">
         <v>135.7</v>
@@ -24048,7 +24048,7 @@
         <v>-5.6</v>
       </c>
       <c r="CQ43" t="n">
-        <v>2.00000000000002</v>
+        <v>1.80000000000003</v>
       </c>
       <c r="CR43" t="n">
         <v>78.90000000000001</v>
@@ -24075,7 +24075,7 @@
         <v>-10.1</v>
       </c>
       <c r="CZ43" t="n">
-        <v>13.60000000000002</v>
+        <v>13.10000000000002</v>
       </c>
       <c r="DA43" t="n">
         <v>135.5</v>
@@ -24102,7 +24102,7 @@
         <v>4.9</v>
       </c>
       <c r="DI43" t="n">
-        <v>1.199999999999999</v>
+        <v>0.09999999999999809</v>
       </c>
       <c r="DJ43" t="n">
         <v>11.6</v>
@@ -24165,7 +24165,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="ED43" t="n">
-        <v>12.29999999999998</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="EE43" t="n">
         <v>149</v>
@@ -24316,7 +24316,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22.30000000000001</v>
+        <v>3.900000000000031</v>
       </c>
       <c r="C44" t="n">
         <v>229.3</v>
@@ -24352,7 +24352,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>14.50000000000005</v>
+        <v>13.1000000000001</v>
       </c>
       <c r="O44" t="n">
         <v>318.5</v>
@@ -24370,7 +24370,7 @@
         <v>-5.9</v>
       </c>
       <c r="T44" t="n">
-        <v>9.000000000000114</v>
+        <v>7.60000000000025</v>
       </c>
       <c r="U44" t="n">
         <v>749.8</v>
@@ -24415,7 +24415,7 @@
         <v>-15.7</v>
       </c>
       <c r="AI44" t="n">
-        <v>112.700000000001</v>
+        <v>43.20000000000122</v>
       </c>
       <c r="AJ44" t="n">
         <v>10269.2</v>
@@ -24433,7 +24433,7 @@
         <v>25</v>
       </c>
       <c r="AO44" t="n">
-        <v>2.299999999999999</v>
+        <v>1.299999999999998</v>
       </c>
       <c r="AP44" t="n">
         <v>4.9</v>
@@ -24442,7 +24442,7 @@
         <v>-50</v>
       </c>
       <c r="AR44" t="n">
-        <v>2.300000000000001</v>
+        <v>0.3000000000000012</v>
       </c>
       <c r="AS44" t="n">
         <v>82.2</v>
@@ -24451,7 +24451,7 @@
         <v>-11.3</v>
       </c>
       <c r="AU44" t="n">
-        <v>43.89999999999998</v>
+        <v>39.59999999999997</v>
       </c>
       <c r="AV44" t="n">
         <v>565.6</v>
@@ -24469,7 +24469,7 @@
         <v>-0.3</v>
       </c>
       <c r="BA44" t="n">
-        <v>1.500000000000007</v>
+        <v>1.100000000000016</v>
       </c>
       <c r="BB44" t="n">
         <v>56</v>
@@ -24478,7 +24478,7 @@
         <v>0.4</v>
       </c>
       <c r="BD44" t="n">
-        <v>26</v>
+        <v>21.09999999999999</v>
       </c>
       <c r="BE44" t="n">
         <v>191.5</v>
@@ -24487,7 +24487,7 @@
         <v>-11.1</v>
       </c>
       <c r="BG44" t="n">
-        <v>11.40000000000003</v>
+        <v>0.5000000000000497</v>
       </c>
       <c r="BH44" t="n">
         <v>167.5</v>
@@ -24514,7 +24514,7 @@
         <v>48.5</v>
       </c>
       <c r="BP44" t="n">
-        <v>37.30000000000007</v>
+        <v>35.30000000000019</v>
       </c>
       <c r="BQ44" t="n">
         <v>760.7</v>
@@ -24532,7 +24532,7 @@
         <v>-5.2</v>
       </c>
       <c r="BV44" t="n">
-        <v>37.7000000000003</v>
+        <v>30.80000000000072</v>
       </c>
       <c r="BW44" t="n">
         <v>2888.2</v>
@@ -24541,7 +24541,7 @@
         <v>5.9</v>
       </c>
       <c r="BY44" t="n">
-        <v>26.49999999999949</v>
+        <v>17.49999999999929</v>
       </c>
       <c r="BZ44" t="n">
         <v>2623.6</v>
@@ -24550,7 +24550,7 @@
         <v>6.1</v>
       </c>
       <c r="CB44" t="n">
-        <v>59.10000000000002</v>
+        <v>48.60000000000008</v>
       </c>
       <c r="CC44" t="n">
         <v>403</v>
@@ -24586,7 +24586,7 @@
         <v>-0.2</v>
       </c>
       <c r="CN44" t="n">
-        <v>5.699999999999992</v>
+        <v>5.399999999999952</v>
       </c>
       <c r="CO44" t="n">
         <v>234.2</v>
@@ -24595,7 +24595,7 @@
         <v>-6.7</v>
       </c>
       <c r="CQ44" t="n">
-        <v>11</v>
+        <v>8.99999999999998</v>
       </c>
       <c r="CR44" t="n">
         <v>88.59999999999999</v>
@@ -24604,7 +24604,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="CT44" t="n">
-        <v>55.39999999999998</v>
+        <v>46.19999999999999</v>
       </c>
       <c r="CU44" t="n">
         <v>402.2</v>
@@ -24613,7 +24613,7 @@
         <v>-16.2</v>
       </c>
       <c r="CW44" t="n">
-        <v>33.5</v>
+        <v>27.80000000000004</v>
       </c>
       <c r="CX44" t="n">
         <v>236.1</v>
@@ -24631,7 +24631,7 @@
         <v>-5.4</v>
       </c>
       <c r="DC44" t="n">
-        <v>2.399999999999999</v>
+        <v>2.099999999999995</v>
       </c>
       <c r="DD44" t="n">
         <v>47.1</v>
@@ -24667,7 +24667,7 @@
         <v>3.9</v>
       </c>
       <c r="DO44" t="n">
-        <v>0.4000000000000092</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="DP44" t="n">
         <v>69.40000000000001</v>
@@ -24676,7 +24676,7 @@
         <v>-28.8</v>
       </c>
       <c r="DR44" t="n">
-        <v>2.699999999999989</v>
+        <v>0.999999999999944</v>
       </c>
       <c r="DS44" t="n">
         <v>508.2</v>
@@ -24685,7 +24685,7 @@
         <v>-0.1</v>
       </c>
       <c r="DU44" t="n">
-        <v>2.199999999999996</v>
+        <v>0.9999999999999931</v>
       </c>
       <c r="DV44" t="n">
         <v>55.6</v>
@@ -24694,7 +24694,7 @@
         <v>13.2</v>
       </c>
       <c r="DX44" t="n">
-        <v>10.2</v>
+        <v>9.099999999999991</v>
       </c>
       <c r="DY44" t="n">
         <v>86.7</v>
@@ -24703,7 +24703,7 @@
         <v>-6.1</v>
       </c>
       <c r="EA44" t="n">
-        <v>10.09999999999997</v>
+        <v>6.199999999999935</v>
       </c>
       <c r="EB44" t="n">
         <v>517.3</v>
